--- a/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/з_пробілами/сортовані_біграми_перетинаючі_з_пробілами.xlsx
+++ b/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/з_пробілами/сортовані_біграми_перетинаючі_з_пробілами.xlsx
@@ -749,320 +749,256 @@
           <t xml:space="preserve"> п</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.016614</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.01661443502777263</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">а </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.017505</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.01750461941107423</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>бы</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.002737</t>
-        </is>
+      <c r="F2" t="n">
+        <v>0.002736544736679528</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve">в </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.006776</t>
-        </is>
+      <c r="H2" t="n">
+        <v>0.006776072293081274</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>го</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.007599</t>
-        </is>
+      <c r="J2" t="n">
+        <v>0.007598861013293794</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>да</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.004186</t>
-        </is>
+      <c r="L2" t="n">
+        <v>0.004185551493094753</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t xml:space="preserve">е </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.015757</t>
-        </is>
+      <c r="N2" t="n">
+        <v>0.01575654439970121</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>же</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.002956</t>
-        </is>
+      <c r="P2" t="n">
+        <v>0.002955580641719039</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>за</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.005459</t>
-        </is>
+      <c r="R2" t="n">
+        <v>0.005459048710215498</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
           <t xml:space="preserve">и </t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.015971</t>
-        </is>
+      <c r="T2" t="n">
+        <v>0.01597136807579766</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
           <t xml:space="preserve">й </t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.007780</t>
-        </is>
+      <c r="V2" t="n">
+        <v>0.007779986857845697</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
           <t>ко</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.008402</t>
-        </is>
+      <c r="X2" t="n">
+        <v>0.008401992665105334</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t xml:space="preserve">л </t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.007826</t>
-        </is>
+      <c r="Z2" t="n">
+        <v>0.00782632137621944</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t xml:space="preserve">м </t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.007248</t>
-        </is>
+      <c r="AB2" t="n">
+        <v>0.007247841934704835</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>но</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0.009709</t>
-        </is>
+      <c r="AD2" t="n">
+        <v>0.009709187713770618</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
           <t xml:space="preserve">о </t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0.020660</t>
-        </is>
+      <c r="AF2" t="n">
+        <v>0.0206595788894318</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
           <t>по</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0.009155</t>
-        </is>
+      <c r="AH2" t="n">
+        <v>0.009154577569600062</v>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
           <t>ро</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.007918</t>
-        </is>
+      <c r="AJ2" t="n">
+        <v>0.007917586336652569</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
           <t>ст</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0.009230</t>
-        </is>
+      <c r="AL2" t="n">
+        <v>0.009230397690575279</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
           <t>то</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0.013229</t>
-        </is>
+      <c r="AN2" t="n">
+        <v>0.0132292070338607</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
           <t xml:space="preserve">у </t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0.006380</t>
-        </is>
+      <c r="AP2" t="n">
+        <v>0.006380122772432927</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
           <t>фе</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>0.000503</t>
-        </is>
+      <c r="AR2" t="n">
+        <v>0.00050265932053939</v>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
           <t xml:space="preserve">х </t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>0.002877</t>
-        </is>
+      <c r="AT2" t="n">
+        <v>0.002876952368115112</v>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
           <t>це</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>0.000830</t>
-        </is>
+      <c r="AV2" t="n">
+        <v>0.0008298091017843002</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
           <t>че</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>0.003783</t>
-        </is>
+      <c r="AX2" t="n">
+        <v>0.003782581590874627</v>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
           <t>ше</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>0.002054</t>
-        </is>
+      <c r="AZ2" t="n">
+        <v>0.002054163647902591</v>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
           <t>ще</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>0.001244</t>
-        </is>
+      <c r="BB2" t="n">
+        <v>0.001244011614519272</v>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
           <t xml:space="preserve">ы </t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>0.003700</t>
-        </is>
+      <c r="BD2" t="n">
+        <v>0.003699741088327633</v>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
           <t xml:space="preserve">ь </t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>0.009076</t>
-        </is>
+      <c r="BF2" t="n">
+        <v>0.009075949295996135</v>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
           <t>эт</t>
         </is>
       </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>0.002408</t>
-        </is>
+      <c r="BH2" t="n">
+        <v>0.002407990879120262</v>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
           <t xml:space="preserve">ю </t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>0.002530</t>
-        </is>
+      <c r="BJ2" t="n">
+        <v>0.00253014551846922</v>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
           <t xml:space="preserve">я </t>
         </is>
       </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>0.009166</t>
-        </is>
+      <c r="BL2" t="n">
+        <v>0.009165810180114909</v>
       </c>
     </row>
     <row r="3">
@@ -1071,320 +1007,256 @@
           <t xml:space="preserve"> в</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.016002</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.01600225775471349</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>ал</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.008634</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.008633665256974047</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>бе</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.002314</t>
-        </is>
+      <c r="F3" t="n">
+        <v>0.002313917766058421</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>во</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.006296</t>
-        </is>
+      <c r="H3" t="n">
+        <v>0.006295878193571577</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>га</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.002134</t>
-        </is>
+      <c r="J3" t="n">
+        <v>0.002134195997820873</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>де</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.003850</t>
-        </is>
+      <c r="L3" t="n">
+        <v>0.003849977253963707</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>ер</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.006477</t>
-        </is>
+      <c r="N3" t="n">
+        <v>0.00647700403812348</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>жа</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.001316</t>
-        </is>
+      <c r="P3" t="n">
+        <v>0.00131561950655142</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t xml:space="preserve">з </t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.001559</t>
-        </is>
+      <c r="R3" t="n">
+        <v>0.00155852470893498</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>ил</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.006130</t>
-        </is>
+      <c r="T3" t="n">
+        <v>0.006130197188477588</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>йн</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.000406</t>
-        </is>
+      <c r="V3" t="n">
+        <v>0.0004057780548488371</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>ка</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.007071</t>
-        </is>
+      <c r="X3" t="n">
+        <v>0.007070928319095999</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ла</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0.007464</t>
-        </is>
+      <c r="Z3" t="n">
+        <v>0.007464069687115634</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>ма</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0.003575</t>
-        </is>
+      <c r="AB3" t="n">
+        <v>0.003574778296349963</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>на</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>0.009138</t>
-        </is>
+      <c r="AD3" t="n">
+        <v>0.009137728653827793</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
           <t>ов</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0.006959</t>
-        </is>
+      <c r="AF3" t="n">
+        <v>0.006958602213947533</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
           <t>пр</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0.006484</t>
-        </is>
+      <c r="AH3" t="n">
+        <v>0.006484024419695259</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
           <t>ра</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>0.007526</t>
-        </is>
+      <c r="AJ3" t="n">
+        <v>0.007525849044947291</v>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
           <t>ск</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>0.003884</t>
-        </is>
+      <c r="AL3" t="n">
+        <v>0.003883675085508248</v>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
           <t>те</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>0.005698</t>
-        </is>
+      <c r="AN3" t="n">
+        <v>0.00569774168365599</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
           <t>ул</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0.002185</t>
-        </is>
+      <c r="AP3" t="n">
+        <v>0.002184742745137684</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
           <t>фи</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>0.000334</t>
-        </is>
+      <c r="AR3" t="n">
+        <v>0.0003341701628166894</v>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
           <t>хо</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>0.001778</t>
-        </is>
+      <c r="AT3" t="n">
+        <v>0.001777560613974491</v>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
           <t>ца</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>0.000633</t>
-        </is>
+      <c r="AV3" t="n">
+        <v>0.0006332384177744829</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
           <t>чт</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>0.003041</t>
-        </is>
+      <c r="AX3" t="n">
+        <v>0.003041229296894745</v>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
           <t>ши</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>0.001803</t>
-        </is>
+      <c r="AZ3" t="n">
+        <v>0.001802833987632896</v>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
           <t>щи</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>0.001026</t>
-        </is>
+      <c r="BB3" t="n">
+        <v>0.001026379785794117</v>
       </c>
       <c r="BC3" t="inlineStr">
         <is>
           <t>ыл</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>0.001911</t>
-        </is>
+      <c r="BD3" t="n">
+        <v>0.001910947863838295</v>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
           <t>ьн</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>0.001257</t>
-        </is>
+      <c r="BF3" t="n">
+        <v>0.001256648301348475</v>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
           <t>эк</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>0.000031</t>
-        </is>
+      <c r="BH3" t="n">
+        <v>3.088967891582843e-05</v>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
           <t>ющ</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>0.000469</t>
-        </is>
+      <c r="BJ3" t="n">
+        <v>0.0004689614889948499</v>
       </c>
       <c r="BK3" t="inlineStr">
         <is>
           <t>ят</t>
         </is>
       </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>0.001259</t>
-        </is>
+      <c r="BL3" t="n">
+        <v>0.001259456453977187</v>
       </c>
     </row>
     <row r="4">
@@ -1393,320 +1265,256 @@
           <t xml:space="preserve"> н</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.014852</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.01485231925325605</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>ан</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.005143</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0.005143131539485434</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>бо</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.001936</t>
-        </is>
+      <c r="F4" t="n">
+        <v>0.0019362212374967</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>ва</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.006283</t>
-        </is>
+      <c r="H4" t="n">
+        <v>0.006283241506742375</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>гл</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.001521</t>
-        </is>
+      <c r="J4" t="n">
+        <v>0.001520614648447372</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>до</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.003255</t>
-        </is>
+      <c r="L4" t="n">
+        <v>0.003254648896676832</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>ен</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.006275</t>
-        </is>
+      <c r="N4" t="n">
+        <v>0.00627481704885624</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>жи</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.001129</t>
-        </is>
+      <c r="P4" t="n">
+        <v>0.001128877356742094</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>зн</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.001380</t>
-        </is>
+      <c r="R4" t="n">
+        <v>0.001380207017011789</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>ит</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.004091</t>
-        </is>
+      <c r="T4" t="n">
+        <v>0.004091478380032911</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
           <t>йт</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.000392</t>
-        </is>
+      <c r="V4" t="n">
+        <v>0.0003917372917052788</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
           <t xml:space="preserve">к </t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.004163</t>
-        </is>
+      <c r="X4" t="n">
+        <v>0.00416308627206506</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ли</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.006236</t>
-        </is>
+      <c r="Z4" t="n">
+        <v>0.006235502912054276</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>ме</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0.003106</t>
-        </is>
+      <c r="AB4" t="n">
+        <v>0.003105816807355113</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>не</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>0.008788</t>
-        </is>
+      <c r="AD4" t="n">
+        <v>0.00878811365155319</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
           <t>от</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0.006485</t>
-        </is>
+      <c r="AF4" t="n">
+        <v>0.006485428496009615</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
           <t>пе</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0.002120</t>
-        </is>
+      <c r="AH4" t="n">
+        <v>0.002120155234677315</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
           <t>ре</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>0.005598</t>
-        </is>
+      <c r="AJ4" t="n">
+        <v>0.005598052265336726</v>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
           <t>ся</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>0.003743</t>
-        </is>
+      <c r="AL4" t="n">
+        <v>0.003743267454072664</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
           <t xml:space="preserve">т </t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>0.005632</t>
-        </is>
+      <c r="AN4" t="n">
+        <v>0.005631750096881266</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
           <t>уд</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0.001799</t>
-        </is>
+      <c r="AP4" t="n">
+        <v>0.001798621758689828</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
           <t>фа</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>0.000274</t>
-        </is>
+      <c r="AR4" t="n">
+        <v>0.0002737948812993884</v>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
           <t>ха</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>0.000569</t>
-        </is>
+      <c r="AT4" t="n">
+        <v>0.0005686509073141143</v>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
           <t xml:space="preserve">ц </t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>0.000336</t>
-        </is>
+      <c r="AV4" t="n">
+        <v>0.0003355742391310453</v>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
           <t>ча</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>0.002240</t>
-        </is>
+      <c r="AX4" t="n">
+        <v>0.002239501721397562</v>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
           <t>ша</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>0.001018</t>
-        </is>
+      <c r="AZ4" t="n">
+        <v>0.001017955327907983</v>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
           <t>ща</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>0.000441</t>
-        </is>
+      <c r="BB4" t="n">
+        <v>0.0004408799627077331</v>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
           <t>ый</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>0.001779</t>
-        </is>
+      <c r="BD4" t="n">
+        <v>0.001778964690288847</v>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
           <t>ьк</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>0.000910</t>
-        </is>
+      <c r="BF4" t="n">
+        <v>0.000909841451702583</v>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
           <t>эх</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>0.000024</t>
-        </is>
+      <c r="BH4" t="n">
+        <v>2.386929734404924e-05</v>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
           <t>ют</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>0.000292</t>
-        </is>
+      <c r="BJ4" t="n">
+        <v>0.0002920478733860143</v>
       </c>
       <c r="BK4" t="inlineStr">
         <is>
           <t>ял</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>0.000813</t>
-        </is>
+      <c r="BL4" t="n">
+        <v>0.0008129601860120302</v>
       </c>
     </row>
     <row r="5">
@@ -1715,320 +1523,256 @@
           <t xml:space="preserve"> с</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.014577</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.01457712029564231</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>ат</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.004917</t>
-        </is>
+      <c r="D5" t="n">
+        <v>0.004917075252874144</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>бу</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.001213</t>
-        </is>
+      <c r="F5" t="n">
+        <v>0.001213121935603444</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>ве</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.005611</t>
-        </is>
+      <c r="H5" t="n">
+        <v>0.005610688952165929</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>гр</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.001278</t>
-        </is>
+      <c r="J5" t="n">
+        <v>0.001277709446063813</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>ди</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.001983</t>
-        </is>
+      <c r="L5" t="n">
+        <v>0.001982555755870443</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>ел</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.005920</t>
-        </is>
+      <c r="N5" t="n">
+        <v>0.005919585741324213</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>жд</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.000716</t>
-        </is>
+      <c r="P5" t="n">
+        <v>0.0007160789203214773</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
           <t>зв</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.001092</t>
-        </is>
+      <c r="R5" t="n">
+        <v>0.001092371372568842</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>ин</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.003260</t>
-        </is>
+      <c r="T5" t="n">
+        <v>0.003260265201934255</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
           <t>йс</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.000376</t>
-        </is>
+      <c r="V5" t="n">
+        <v>0.0003762924522473645</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>ки</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.002884</t>
-        </is>
+      <c r="X5" t="n">
+        <v>0.002883972749686891</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ло</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.006207</t>
-        </is>
+      <c r="Z5" t="n">
+        <v>0.006207421385767159</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>мо</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.002901</t>
-        </is>
+      <c r="AB5" t="n">
+        <v>0.002900821665459161</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>ни</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0.007022</t>
-        </is>
+      <c r="AD5" t="n">
+        <v>0.007021785648093545</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
           <t>ол</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0.006269</t>
-        </is>
+      <c r="AF5" t="n">
+        <v>0.006269200743598816</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
           <t>па</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0.001664</t>
-        </is>
+      <c r="AH5" t="n">
+        <v>0.001663830432511668</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
           <t>ри</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>0.005560</t>
-        </is>
+      <c r="AJ5" t="n">
+        <v>0.005560142204849118</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
           <t>сь</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>0.003448</t>
-        </is>
+      <c r="AL5" t="n">
+        <v>0.003448411428057938</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
           <t>та</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>0.005571</t>
-        </is>
+      <c r="AN5" t="n">
+        <v>0.005571374815363964</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
           <t>ут</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0.001646</t>
-        </is>
+      <c r="AP5" t="n">
+        <v>0.001645577440425042</v>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>фо</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>0.000244</t>
-        </is>
+      <c r="AR5" t="n">
+        <v>0.0002443092786979158</v>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
           <t>хн</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>0.000337</t>
-        </is>
+      <c r="AT5" t="n">
+        <v>0.0003369783154454011</v>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
           <t>ци</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>0.000285</t>
-        </is>
+      <c r="AV5" t="n">
+        <v>0.0002850274918142351</v>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
           <t>чи</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>0.001547</t>
-        </is>
+      <c r="AX5" t="n">
+        <v>0.001547292098420133</v>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
           <t>шл</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>0.000428</t>
-        </is>
+      <c r="AZ5" t="n">
+        <v>0.0004282432758785306</v>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
           <t>щу</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>0.000143</t>
-        </is>
+      <c r="BB5" t="n">
+        <v>0.0001432157840642955</v>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
           <t>ым</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>0.001243</t>
-        </is>
+      <c r="BD5" t="n">
+        <v>0.001242607538204917</v>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
           <t>ье</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>0.000886</t>
-        </is>
+      <c r="BF5" t="n">
+        <v>0.0008859721543585337</v>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
           <t>эл</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>0.000021</t>
-        </is>
+      <c r="BH5" t="n">
+        <v>2.106114471533757e-05</v>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
           <t>юд</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>0.000233</t>
-        </is>
+      <c r="BJ5" t="n">
+        <v>0.0002330766681830691</v>
       </c>
       <c r="BK5" t="inlineStr">
         <is>
           <t>яс</t>
         </is>
       </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>0.000767</t>
-        </is>
+      <c r="BL5" t="n">
+        <v>0.0007666256676382875</v>
       </c>
     </row>
     <row r="6">
@@ -2037,320 +1781,256 @@
           <t xml:space="preserve"> и</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.010862</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.01086193436785676</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>ар</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.004360</t>
-        </is>
+      <c r="D6" t="n">
+        <v>0.004359656956074876</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>бр</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.001069</t>
-        </is>
+      <c r="F6" t="n">
+        <v>0.001068502075224793</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>ви</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.003524</t>
-        </is>
+      <c r="H6" t="n">
+        <v>0.003524231549033153</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>гд</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.000900</t>
-        </is>
+      <c r="J6" t="n">
+        <v>0.000900012917502092</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>дн</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.001928</t>
-        </is>
+      <c r="L6" t="n">
+        <v>0.001927796779610565</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>ет</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0.005204</t>
-        </is>
+      <c r="N6" t="n">
+        <v>0.005203506821002736</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>жн</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.000630</t>
-        </is>
+      <c r="P6" t="n">
+        <v>0.0006304302651457712</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>зд</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.000862</t>
-        </is>
+      <c r="R6" t="n">
+        <v>0.0008621028570144845</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>ис</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.002906</t>
-        </is>
+      <c r="T6" t="n">
+        <v>0.002906437970716584</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
           <t>йч</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.000174</t>
-        </is>
+      <c r="V6" t="n">
+        <v>0.0001741054629801239</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
           <t>ку</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.002179</t>
-        </is>
+      <c r="X6" t="n">
+        <v>0.00217912643988026</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ле</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0.004442</t>
-        </is>
+      <c r="Z6" t="n">
+        <v>0.004442497458621871</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>ми</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>0.002811</t>
-        </is>
+      <c r="AB6" t="n">
+        <v>0.002810960781340387</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
           <t>ну</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>0.003731</t>
-        </is>
+      <c r="AD6" t="n">
+        <v>0.003730630767243461</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
           <t>ор</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0.006162</t>
-        </is>
+      <c r="AF6" t="n">
+        <v>0.006162490943707772</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
           <t>пи</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0.001252</t>
-        </is>
+      <c r="AH6" t="n">
+        <v>0.001252436072405407</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
           <t>ру</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>0.002488</t>
-        </is>
+      <c r="AJ6" t="n">
+        <v>0.002488023229038545</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
           <t>се</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>0.002943</t>
-        </is>
+      <c r="AL6" t="n">
+        <v>0.002942943954889836</v>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
           <t>ть</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>0.004531</t>
-        </is>
+      <c r="AN6" t="n">
+        <v>0.004530954266426288</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
           <t>ус</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0.001216</t>
-        </is>
+      <c r="AP6" t="n">
+        <v>0.001215930088232156</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
           <t>фр</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>0.000185</t>
-        </is>
+      <c r="AR6" t="n">
+        <v>0.0001853380734949706</v>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
           <t>хи</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>0.000316</t>
-        </is>
+      <c r="AT6" t="n">
+        <v>0.0003159171707300635</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
           <t>цо</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>0.000257</t>
-        </is>
+      <c r="AV6" t="n">
+        <v>0.0002569459655271183</v>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
           <t>чн</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>0.000778</t>
-        </is>
+      <c r="AX6" t="n">
+        <v>0.0007778582781531342</v>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
           <t>шк</t>
         </is>
       </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>0.000390</t>
-        </is>
+      <c r="AZ6" t="n">
+        <v>0.0003903332153909229</v>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
           <t>щн</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>0.000055</t>
-        </is>
+      <c r="BB6" t="n">
+        <v>5.475897625987768e-05</v>
       </c>
       <c r="BC6" t="inlineStr">
         <is>
           <t>ые</t>
         </is>
       </c>
-      <c r="BD6" t="inlineStr">
-        <is>
-          <t>0.000893</t>
-        </is>
+      <c r="BD6" t="n">
+        <v>0.0008929925359303129</v>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
           <t>ьс</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>0.000709</t>
-        </is>
+      <c r="BF6" t="n">
+        <v>0.0007090585387496981</v>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
           <t>эн</t>
         </is>
       </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="BH6" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
           <t>юс</t>
         </is>
       </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>0.000176</t>
-        </is>
+      <c r="BJ6" t="n">
+        <v>0.0001755095392944797</v>
       </c>
       <c r="BK6" t="inlineStr">
         <is>
           <t>яд</t>
         </is>
       </c>
-      <c r="BL6" t="inlineStr">
-        <is>
-          <t>0.000560</t>
-        </is>
+      <c r="BL6" t="n">
+        <v>0.0005602264494279794</v>
       </c>
     </row>
     <row r="7">
@@ -2359,320 +2039,256 @@
           <t xml:space="preserve"> о</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.009455</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.009455049900872212</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>ак</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.004270</t>
-        </is>
+      <c r="D7" t="n">
+        <v>0.004269796071956103</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>ба</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.000952</t>
-        </is>
+      <c r="F7" t="n">
+        <v>0.0009519637411332581</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>вы</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.002605</t>
-        </is>
+      <c r="H7" t="n">
+        <v>0.002604561563130079</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>ги</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.000630</t>
-        </is>
+      <c r="J7" t="n">
+        <v>0.0006304302651457712</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>ду</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.001455</t>
-        </is>
+      <c r="L7" t="n">
+        <v>0.001454623061672648</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>ес</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0.004073</t>
-        </is>
+      <c r="N7" t="n">
+        <v>0.004073225387946286</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
           <t xml:space="preserve">ж </t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.000258</t>
-        </is>
+      <c r="P7" t="n">
+        <v>0.0002583500418414742</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>зо</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.000647</t>
-        </is>
+      <c r="R7" t="n">
+        <v>0.0006472791809180412</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>ив</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.002780</t>
-        </is>
+      <c r="T7" t="n">
+        <v>0.002780071102424559</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
           <t>йш</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.000171</t>
-        </is>
+      <c r="V7" t="n">
+        <v>0.0001712973103514122</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>кр</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0.002103</t>
-        </is>
+      <c r="X7" t="n">
+        <v>0.002103306318905045</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ль</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0.003496</t>
-        </is>
+      <c r="Z7" t="n">
+        <v>0.003496150022746036</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>му</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0.001721</t>
-        </is>
+      <c r="AB7" t="n">
+        <v>0.001721397561400257</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
           <t xml:space="preserve">н </t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>0.003269</t>
-        </is>
+      <c r="AD7" t="n">
+        <v>0.003268689659820391</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
           <t>ом</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0.005667</t>
-        </is>
+      <c r="AF7" t="n">
+        <v>0.005666852004740161</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
           <t>пл</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0.000894</t>
-        </is>
+      <c r="AH7" t="n">
+        <v>0.0008943966122446687</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
           <t xml:space="preserve">р </t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>0.001445</t>
-        </is>
+      <c r="AJ7" t="n">
+        <v>0.001444794527472157</v>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
           <t xml:space="preserve">с </t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>0.002884</t>
-        </is>
+      <c r="AL7" t="n">
+        <v>0.002883972749686891</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
           <t>ти</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>0.003433</t>
-        </is>
+      <c r="AN7" t="n">
+        <v>0.003432966588600024</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
           <t>уж</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0.001192</t>
-        </is>
+      <c r="AP7" t="n">
+        <v>0.001192060790888106</v>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
           <t>фл</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>0.000088</t>
-        </is>
+      <c r="AR7" t="n">
+        <v>8.845680780441778e-05</v>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
           <t>хр</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>0.000198</t>
-        </is>
+      <c r="AT7" t="n">
+        <v>0.0001979747603241731</v>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
           <t>цы</t>
         </is>
       </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>0.000156</t>
-        </is>
+      <c r="AV7" t="n">
+        <v>0.000155852470893498</v>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
           <t xml:space="preserve">ч </t>
         </is>
       </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>0.000520</t>
-        </is>
+      <c r="AX7" t="n">
+        <v>0.00051950823631166</v>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
           <t>шу</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>0.000388</t>
-        </is>
+      <c r="AZ7" t="n">
+        <v>0.0003875250627622112</v>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
           <t xml:space="preserve">щ </t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="BB7" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="BC7" t="inlineStr">
         <is>
           <t>ыв</t>
         </is>
       </c>
-      <c r="BD7" t="inlineStr">
-        <is>
-          <t>0.000840</t>
-        </is>
+      <c r="BD7" t="n">
+        <v>0.000839637635984791</v>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
           <t>ья</t>
         </is>
       </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>0.000414</t>
-        </is>
+      <c r="BF7" t="n">
+        <v>0.0004142025127349722</v>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
           <t xml:space="preserve">э </t>
         </is>
       </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="BH7" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
           <t>юб</t>
         </is>
       </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>0.000167</t>
-        </is>
+      <c r="BJ7" t="n">
+        <v>0.0001670850814083447</v>
       </c>
       <c r="BK7" t="inlineStr">
         <is>
           <t>ян</t>
         </is>
       </c>
-      <c r="BL7" t="inlineStr">
-        <is>
-          <t>0.000560</t>
-        </is>
+      <c r="BL7" t="n">
+        <v>0.0005602264494279794</v>
       </c>
     </row>
     <row r="8">
@@ -2681,320 +2297,256 @@
           <t xml:space="preserve"> к</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.009431</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.009431180603528162</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>ас</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.004045</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0.004045143861659169</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>би</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.000660</t>
-        </is>
+      <c r="F8" t="n">
+        <v>0.0006599158677472438</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>вс</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.002116</t>
-        </is>
+      <c r="H8" t="n">
+        <v>0.002115943005734248</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t xml:space="preserve">г </t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.000494</t>
-        </is>
+      <c r="J8" t="n">
+        <v>0.0004942348626532549</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t xml:space="preserve">д </t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0.001434</t>
-        </is>
+      <c r="L8" t="n">
+        <v>0.001433561916957311</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>ем</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0.003663</t>
-        </is>
+      <c r="N8" t="n">
+        <v>0.003663235104154381</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>жу</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.000185</t>
-        </is>
+      <c r="P8" t="n">
+        <v>0.0001853380734949706</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
           <t>зе</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.000628</t>
-        </is>
+      <c r="R8" t="n">
+        <v>0.0006276221125170596</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>ик</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.002679</t>
-        </is>
+      <c r="T8" t="n">
+        <v>0.002678977607790939</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
           <t>йк</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.000139</t>
-        </is>
+      <c r="V8" t="n">
+        <v>0.0001390035551212279</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>ке</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0.000865</t>
-        </is>
+      <c r="X8" t="n">
+        <v>0.0008649110096431962</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>лс</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0.001964</t>
-        </is>
+      <c r="Z8" t="n">
+        <v>0.001964302763783817</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>мн</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0.001286</t>
-        </is>
+      <c r="AB8" t="n">
+        <v>0.001286133903949948</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
           <t>ны</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>0.003189</t>
-        </is>
+      <c r="AD8" t="n">
+        <v>0.003188657309902108</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
           <t>ос</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0.005573</t>
-        </is>
+      <c r="AF8" t="n">
+        <v>0.00557277889167832</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
           <t>пу</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0.000798</t>
-        </is>
+      <c r="AH8" t="n">
+        <v>0.0007975153465541159</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
           <t>ры</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>0.001332</t>
-        </is>
+      <c r="AJ8" t="n">
+        <v>0.00133246842232369</v>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
           <t>со</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>0.002600</t>
-        </is>
+      <c r="AL8" t="n">
+        <v>0.002600349334187012</v>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
           <t>тр</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>0.002856</t>
-        </is>
+      <c r="AN8" t="n">
+        <v>0.002855891223399774</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
           <t>ую</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0.000993</t>
-        </is>
+      <c r="AP8" t="n">
+        <v>0.0009926819542495774</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
           <t>фу</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0.000052</t>
-        </is>
+      <c r="AR8" t="n">
+        <v>5.1950823631166e-05</v>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
           <t>ху</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>0.000185</t>
-        </is>
+      <c r="AT8" t="n">
+        <v>0.0001853380734949706</v>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
           <t>цу</t>
         </is>
       </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>0.000154</t>
-        </is>
+      <c r="AV8" t="n">
+        <v>0.0001544483945791422</v>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
           <t>чк</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>0.000490</t>
-        </is>
+      <c r="AX8" t="n">
+        <v>0.0004900226337101874</v>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
           <t>шн</t>
         </is>
       </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>0.000382</t>
-        </is>
+      <c r="AZ8" t="n">
+        <v>0.0003819087575047879</v>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
           <t>щь</t>
         </is>
       </c>
-      <c r="BB8" t="inlineStr">
-        <is>
-          <t>0.000021</t>
-        </is>
+      <c r="BB8" t="n">
+        <v>2.106114471533757e-05</v>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
           <t>ых</t>
         </is>
       </c>
-      <c r="BD8" t="inlineStr">
-        <is>
-          <t>0.000835</t>
-        </is>
+      <c r="BD8" t="n">
+        <v>0.0008354254070417236</v>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
           <t>ью</t>
         </is>
       </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>0.000329</t>
-        </is>
+      <c r="BF8" t="n">
+        <v>0.000328553857559266</v>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
           <t>эс</t>
         </is>
       </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="BH8" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
           <t>юч</t>
         </is>
       </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>0.000114</t>
-        </is>
+      <c r="BJ8" t="n">
+        <v>0.0001137301814628229</v>
       </c>
       <c r="BK8" t="inlineStr">
         <is>
           <t>яв</t>
         </is>
       </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>0.000458</t>
-        </is>
+      <c r="BL8" t="n">
+        <v>0.0004577288784800032</v>
       </c>
     </row>
     <row r="9">
@@ -3003,320 +2555,256 @@
           <t xml:space="preserve"> т</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.007218</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0.007218356332103363</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>аз</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.003877</t>
-        </is>
+      <c r="D9" t="n">
+        <v>0.003876654703936468</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>бл</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.000567</t>
-        </is>
+      <c r="F9" t="n">
+        <v>0.0005672468309997585</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>вш</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.000952</t>
-        </is>
+      <c r="H9" t="n">
+        <v>0.0009519637411332581</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>гу</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.000482</t>
-        </is>
+      <c r="J9" t="n">
+        <v>0.0004815981758240524</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>др</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0.000963</t>
-        </is>
+      <c r="L9" t="n">
+        <v>0.0009631963516481048</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>ег</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.002939</t>
-        </is>
+      <c r="N9" t="n">
+        <v>0.002938731725946769</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>жк</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.000140</t>
-        </is>
+      <c r="P9" t="n">
+        <v>0.0001404076314355838</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
           <t>зи</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.000493</t>
-        </is>
+      <c r="R9" t="n">
+        <v>0.0004928307863388991</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>им</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.002544</t>
-        </is>
+      <c r="T9" t="n">
+        <v>0.002544186281612778</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
           <t>йд</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.000102</t>
-        </is>
+      <c r="V9" t="n">
+        <v>0.0001024975709479762</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>кл</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0.000806</t>
-        </is>
+      <c r="X9" t="n">
+        <v>0.0008059398044402509</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ля</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0.001317</t>
-        </is>
+      <c r="Z9" t="n">
+        <v>0.001317023582865776</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>мы</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>0.000696</t>
-        </is>
+      <c r="AB9" t="n">
+        <v>0.0006964218519204955</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
           <t>нн</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>0.003102</t>
-        </is>
+      <c r="AD9" t="n">
+        <v>0.003101604578412046</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
           <t>он</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0.005382</t>
-        </is>
+      <c r="AF9" t="n">
+        <v>0.005381824512925927</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
           <t>пя</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0.000379</t>
-        </is>
+      <c r="AH9" t="n">
+        <v>0.0003791006048760762</v>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
           <t>ря</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>0.001014</t>
-        </is>
+      <c r="AJ9" t="n">
+        <v>0.001013743098964915</v>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
           <t>сл</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>0.002467</t>
-        </is>
+      <c r="AL9" t="n">
+        <v>0.002466962084323207</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
           <t>ту</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>0.001964</t>
-        </is>
+      <c r="AN9" t="n">
+        <v>0.001964302763783817</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
           <t>ур</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0.000967</t>
-        </is>
+      <c r="AP9" t="n">
+        <v>0.0009674085805911723</v>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
           <t xml:space="preserve">ф </t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>0.000031</t>
-        </is>
+      <c r="AR9" t="n">
+        <v>3.088967891582843e-05</v>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
           <t>хв</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>0.000170</t>
-        </is>
+      <c r="AT9" t="n">
+        <v>0.0001698932340370564</v>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
           <t>цв</t>
         </is>
       </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>0.000063</t>
-        </is>
+      <c r="AV9" t="n">
+        <v>6.31834341460127e-05</v>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
           <t>чу</t>
         </is>
       </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>0.000479</t>
-        </is>
+      <c r="AX9" t="n">
+        <v>0.0004787900231953407</v>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
           <t>шь</t>
         </is>
       </c>
-      <c r="AZ9" t="inlineStr">
-        <is>
-          <t>0.000336</t>
-        </is>
+      <c r="AZ9" t="n">
+        <v>0.0003355742391310453</v>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
           <t>що</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="BB9" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
           <t>ыс</t>
         </is>
       </c>
-      <c r="BD9" t="inlineStr">
-        <is>
-          <t>0.000673</t>
-        </is>
+      <c r="BD9" t="n">
+        <v>0.0006725525545764464</v>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
           <t>ьш</t>
         </is>
       </c>
-      <c r="BF9" t="inlineStr">
-        <is>
-          <t>0.000323</t>
-        </is>
+      <c r="BF9" t="n">
+        <v>0.0003229375523018427</v>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
           <t>эр</t>
         </is>
       </c>
-      <c r="BH9" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="BH9" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
           <t>юх</t>
         </is>
       </c>
-      <c r="BJ9" t="inlineStr">
-        <is>
-          <t>0.000066</t>
-        </is>
+      <c r="BJ9" t="n">
+        <v>6.599158677472438e-05</v>
       </c>
       <c r="BK9" t="inlineStr">
         <is>
           <t>ящ</t>
         </is>
       </c>
-      <c r="BL9" t="inlineStr">
-        <is>
-          <t>0.000369</t>
-        </is>
+      <c r="BL9" t="n">
+        <v>0.0003692720706755854</v>
       </c>
     </row>
     <row r="10">
@@ -3325,320 +2813,256 @@
           <t xml:space="preserve"> б</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.006287</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0.006287453735685442</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>ам</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.003114</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0.003114241265241248</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>бя</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.000323</t>
-        </is>
+      <c r="F10" t="n">
+        <v>0.0003229375523018427</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>вн</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.000882</t>
-        </is>
+      <c r="H10" t="n">
+        <v>0.0008817599254154662</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>ге</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.000479</t>
-        </is>
+      <c r="J10" t="n">
+        <v>0.0004787900231953407</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>дв</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.000918</t>
-        </is>
+      <c r="L10" t="n">
+        <v>0.000918265909588718</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>ед</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0.002814</t>
-        </is>
+      <c r="N10" t="n">
+        <v>0.002813768933969099</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>жо</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.000056</t>
-        </is>
+      <c r="P10" t="n">
+        <v>5.616305257423352e-05</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
           <t>зу</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.000425</t>
-        </is>
+      <c r="R10" t="n">
+        <v>0.0004254351232498189</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>из</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.002189</t>
-        </is>
+      <c r="T10" t="n">
+        <v>0.002188954974080751</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
           <t>йц</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.000083</t>
-        </is>
+      <c r="V10" t="n">
+        <v>8.284050254699443e-05</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>кт</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0.000706</t>
-        </is>
+      <c r="X10" t="n">
+        <v>0.0007062503861209865</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>лу</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0.001300</t>
-        </is>
+      <c r="Z10" t="n">
+        <v>0.001300174667093506</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>мя</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0.000515</t>
-        </is>
+      <c r="AB10" t="n">
+        <v>0.0005152960073685925</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
           <t>ня</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>0.001396</t>
-        </is>
+      <c r="AD10" t="n">
+        <v>0.001395651856469703</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
           <t>од</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0.004497</t>
-        </is>
+      <c r="AF10" t="n">
+        <v>0.004497256434881748</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
           <t>пы</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0.000330</t>
-        </is>
+      <c r="AH10" t="n">
+        <v>0.0003299579338736219</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
           <t>рг</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>0.001012</t>
-        </is>
+      <c r="AJ10" t="n">
+        <v>0.001012339022650559</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
           <t>си</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>0.001800</t>
-        </is>
+      <c r="AL10" t="n">
+        <v>0.001800025835004184</v>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
           <t>тв</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>0.001952</t>
-        </is>
+      <c r="AN10" t="n">
+        <v>0.001951666076954615</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
           <t>ук</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0.000953</t>
-        </is>
+      <c r="AP10" t="n">
+        <v>0.0009533678174476139</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
           <t>фы</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0.000031</t>
-        </is>
+      <c r="AR10" t="n">
+        <v>3.088967891582843e-05</v>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
           <t>хл</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>0.000167</t>
-        </is>
+      <c r="AT10" t="n">
+        <v>0.0001670850814083447</v>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
           <t>цр</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>0.000038</t>
-        </is>
+      <c r="AV10" t="n">
+        <v>3.791006048760762e-05</v>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
           <t>чь</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>0.000254</t>
-        </is>
+      <c r="AX10" t="n">
+        <v>0.0002541378128984067</v>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
           <t>шо</t>
         </is>
       </c>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>0.000243</t>
-        </is>
+      <c r="AZ10" t="n">
+        <v>0.00024290520238356</v>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
           <t>щр</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BB10" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
           <t>ыт</t>
         </is>
       </c>
-      <c r="BD10" t="inlineStr">
-        <is>
-          <t>0.000555</t>
-        </is>
+      <c r="BD10" t="n">
+        <v>0.000554610144170556</v>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
           <t>ьт</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>0.000264</t>
-        </is>
+      <c r="BF10" t="n">
+        <v>0.0002639663470988975</v>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
           <t>эм</t>
         </is>
       </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="BH10" t="n">
+        <v>9.828534200490864e-06</v>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
           <t>юм</t>
         </is>
       </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>0.000060</t>
-        </is>
+      <c r="BJ10" t="n">
+        <v>6.037528151730103e-05</v>
       </c>
       <c r="BK10" t="inlineStr">
         <is>
           <t>ям</t>
         </is>
       </c>
-      <c r="BL10" t="inlineStr">
-        <is>
-          <t>0.000316</t>
-        </is>
+      <c r="BL10" t="n">
+        <v>0.0003159171707300635</v>
       </c>
     </row>
     <row r="11">
@@ -3647,260 +3071,208 @@
           <t xml:space="preserve"> м</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.005750</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0.005749692507287156</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>ав</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.002498</t>
-        </is>
+      <c r="D11" t="n">
+        <v>0.002497851763239035</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>бн</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.000316</t>
-        </is>
+      <c r="F11" t="n">
+        <v>0.0003159171707300635</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>ву</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.000650</t>
-        </is>
+      <c r="H11" t="n">
+        <v>0.000650087333546753</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>гн</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0.000390</t>
-        </is>
+      <c r="J11" t="n">
+        <v>0.0003903332153909229</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>дь</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0.000580</t>
-        </is>
+      <c r="L11" t="n">
+        <v>0.000579883517828961</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>ев</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0.002116</t>
-        </is>
+      <c r="N11" t="n">
+        <v>0.002115943005734248</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>жл</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.000041</t>
-        </is>
+      <c r="P11" t="n">
+        <v>4.07182131163193e-05</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>зы</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.000382</t>
-        </is>
+      <c r="R11" t="n">
+        <v>0.0003819087575047879</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
           <t>ич</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.001716</t>
-        </is>
+      <c r="T11" t="n">
+        <v>0.001715781256142834</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
           <t>йм</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.000049</t>
-        </is>
+      <c r="V11" t="n">
+        <v>4.914267100245432e-05</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
           <t>кн</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0.000689</t>
-        </is>
+      <c r="X11" t="n">
+        <v>0.0006894014703487164</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>лы</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0.000856</t>
-        </is>
+      <c r="Z11" t="n">
+        <v>0.0008564865517570611</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>мс</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0.000278</t>
-        </is>
+      <c r="AB11" t="n">
+        <v>0.0002780071102424559</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
           <t>нь</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>0.000918</t>
-        </is>
+      <c r="AD11" t="n">
+        <v>0.000918265909588718</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
           <t>ог</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0.004344</t>
-        </is>
+      <c r="AF11" t="n">
+        <v>0.004344212116616963</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
           <t>пн</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0.000254</t>
-        </is>
+      <c r="AH11" t="n">
+        <v>0.0002541378128984067</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
           <t>рн</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>0.000965</t>
-        </is>
+      <c r="AJ11" t="n">
+        <v>0.0009646004279624606</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
           <t>са</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>0.001664</t>
-        </is>
+      <c r="AL11" t="n">
+        <v>0.001663830432511668</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
           <t>ты</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>0.001405</t>
-        </is>
+      <c r="AN11" t="n">
+        <v>0.001405480390670194</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
           <t>ум</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>0.000934</t>
-        </is>
+      <c r="AP11" t="n">
+        <v>0.0009337107490466322</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
           <t>фс</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="AR11" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
           <t>хе</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>0.000063</t>
-        </is>
+      <c r="AT11" t="n">
+        <v>6.31834341460127e-05</v>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
           <t>цк</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="AV11" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
           <t>чр</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>0.000066</t>
-        </is>
+      <c r="AX11" t="n">
+        <v>6.599158677472438e-05</v>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>0.000095</t>
-        </is>
+      <c r="AZ11" t="n">
+        <v>9.547718937619697e-05</v>
       </c>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
@@ -3909,50 +3281,40 @@
           <t>ыш</t>
         </is>
       </c>
-      <c r="BD11" t="inlineStr">
-        <is>
-          <t>0.000500</t>
-        </is>
+      <c r="BD11" t="n">
+        <v>0.0004998511679106782</v>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
           <t>ьм</t>
         </is>
       </c>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>0.000239</t>
-        </is>
+      <c r="BF11" t="n">
+        <v>0.0002386929734404924</v>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
           <t>эй</t>
         </is>
       </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="BH11" t="n">
+        <v>9.828534200490864e-06</v>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
           <t>юю</t>
         </is>
       </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>0.000058</t>
-        </is>
+      <c r="BJ11" t="n">
+        <v>5.756712888858936e-05</v>
       </c>
       <c r="BK11" t="inlineStr">
         <is>
           <t>яз</t>
         </is>
       </c>
-      <c r="BL11" t="inlineStr">
-        <is>
-          <t>0.000258</t>
-        </is>
+      <c r="BL11" t="n">
+        <v>0.0002583500418414742</v>
       </c>
     </row>
     <row r="12">
@@ -3961,260 +3323,208 @@
           <t xml:space="preserve"> д</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0.005278</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0.005277922865663595</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>ад</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.002241</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0.002240905797711917</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">б </t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.000191</t>
-        </is>
+      <c r="F12" t="n">
+        <v>0.0001909543787523939</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>вр</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.000615</t>
-        </is>
+      <c r="H12" t="n">
+        <v>0.000614985425687857</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>гк</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.000076</t>
-        </is>
+      <c r="J12" t="n">
+        <v>7.582012097521524e-05</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>ды</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.000486</t>
-        </is>
+      <c r="L12" t="n">
+        <v>0.0004858104047671199</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>ей</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0.001852</t>
-        </is>
+      <c r="N12" t="n">
+        <v>0.00185197665863535</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>жч</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.000035</t>
-        </is>
+      <c r="P12" t="n">
+        <v>3.510190785889594e-05</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>зл</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.000344</t>
-        </is>
+      <c r="R12" t="n">
+        <v>0.0003439986970171803</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
           <t>ие</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.001651</t>
-        </is>
+      <c r="T12" t="n">
+        <v>0.001651193745682465</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
           <t>йб</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="V12" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
           <t>кв</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0.000546</t>
-        </is>
+      <c r="X12" t="n">
+        <v>0.0005461856862844209</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
           <t>лю</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0.000675</t>
-        </is>
+      <c r="Z12" t="n">
+        <v>0.000675360707205158</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>мл</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0.000190</t>
-        </is>
+      <c r="AB12" t="n">
+        <v>0.0001895503024380381</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
           <t>нд</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>0.000854</t>
-        </is>
+      <c r="AD12" t="n">
+        <v>0.0008536783991283494</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
           <t>ой</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0.003806</t>
-        </is>
+      <c r="AF12" t="n">
+        <v>0.003806450888218676</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
           <t>пт</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0.000152</t>
-        </is>
+      <c r="AH12" t="n">
+        <v>0.0001516402419504305</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
           <t>рт</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>0.000925</t>
-        </is>
+      <c r="AJ12" t="n">
+        <v>0.0009252862911604972</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
           <t>сп</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>0.001615</t>
-        </is>
+      <c r="AL12" t="n">
+        <v>0.001614687761509214</v>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
           <t>тн</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>0.001257</t>
-        </is>
+      <c r="AN12" t="n">
+        <v>0.001256648301348475</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
           <t>уг</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>0.000931</t>
-        </is>
+      <c r="AP12" t="n">
+        <v>0.0009309025964179205</v>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
           <t>фт</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="AR12" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
           <t>хм</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>0.000059</t>
-        </is>
+      <c r="AT12" t="n">
+        <v>5.897120520294519e-05</v>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
           <t>цл</t>
         </is>
       </c>
-      <c r="AV12" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AV12" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
           <t>чо</t>
         </is>
       </c>
-      <c r="AX12" t="inlineStr">
-        <is>
-          <t>0.000063</t>
-        </is>
+      <c r="AX12" t="n">
+        <v>6.31834341460127e-05</v>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
           <t xml:space="preserve">ш </t>
         </is>
       </c>
-      <c r="AZ12" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="AZ12" t="n">
+        <v>7.020381571779189e-05</v>
       </c>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
@@ -4223,50 +3533,40 @@
           <t>ыб</t>
         </is>
       </c>
-      <c r="BD12" t="inlineStr">
-        <is>
-          <t>0.000258</t>
-        </is>
+      <c r="BD12" t="n">
+        <v>0.0002583500418414742</v>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
           <t>ьз</t>
         </is>
       </c>
-      <c r="BF12" t="inlineStr">
-        <is>
-          <t>0.000124</t>
-        </is>
+      <c r="BF12" t="n">
+        <v>0.0001235587156633137</v>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
           <t>эф</t>
         </is>
       </c>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="BH12" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
           <t>юр</t>
         </is>
       </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>0.000051</t>
-        </is>
+      <c r="BJ12" t="n">
+        <v>5.054674731681016e-05</v>
       </c>
       <c r="BK12" t="inlineStr">
         <is>
           <t>як</t>
         </is>
       </c>
-      <c r="BL12" t="inlineStr">
-        <is>
-          <t>0.000202</t>
-        </is>
+      <c r="BL12" t="n">
+        <v>0.0002021869892672406</v>
       </c>
     </row>
     <row r="13">
@@ -4275,260 +3575,208 @@
           <t xml:space="preserve"> ч</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.005088</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0.005088372563225556</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>ая</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.002117</t>
-        </is>
+      <c r="D13" t="n">
+        <v>0.002117347082048603</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>бь</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.000178</t>
-        </is>
+      <c r="F13" t="n">
+        <v>0.0001783176919231914</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>вл</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.000587</t>
-        </is>
+      <c r="H13" t="n">
+        <v>0.0005869038994007402</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>гч</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.000049</t>
-        </is>
+      <c r="J13" t="n">
+        <v>4.914267100245432e-05</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>дл</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0.000420</t>
-        </is>
+      <c r="L13" t="n">
+        <v>0.0004198188179923955</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>ек</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0.001453</t>
-        </is>
+      <c r="N13" t="n">
+        <v>0.001453218985358292</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>жб</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.000024</t>
-        </is>
+      <c r="P13" t="n">
+        <v>2.386929734404924e-05</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>зг</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.000272</t>
-        </is>
+      <c r="R13" t="n">
+        <v>0.0002723908049850325</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>ий</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.001617</t>
-        </is>
+      <c r="T13" t="n">
+        <v>0.001617495914137925</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
           <t>йо</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0.000021</t>
-        </is>
+      <c r="V13" t="n">
+        <v>2.106114471533757e-05</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
           <t>кс</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.000143</t>
-        </is>
+      <c r="X13" t="n">
+        <v>0.0001432157840642955</v>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
           <t>лн</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0.000469</t>
-        </is>
+      <c r="Z13" t="n">
+        <v>0.0004689614889948499</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>мп</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>0.000187</t>
-        </is>
+      <c r="AB13" t="n">
+        <v>0.0001867421498093264</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
           <t>нт</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>0.000827</t>
-        </is>
+      <c r="AD13" t="n">
+        <v>0.0008270009491555885</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
           <t>об</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0.002984</t>
-        </is>
+      <c r="AF13" t="n">
+        <v>0.002983662168006156</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
           <t>пк</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="AH13" t="n">
+        <v>8.986088411877362e-05</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
           <t>рь</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>0.000622</t>
-        </is>
+      <c r="AJ13" t="n">
+        <v>0.0006220058072596362</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
           <t>св</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>0.001480</t>
-        </is>
+      <c r="AL13" t="n">
+        <v>0.001479896435331053</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
           <t>тс</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>0.000792</t>
-        </is>
+      <c r="AN13" t="n">
+        <v>0.0007918990412966925</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
           <t>ух</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>0.000831</t>
-        </is>
+      <c r="AP13" t="n">
+        <v>0.000831213178098656</v>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
           <t>фь</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="AR13" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
           <t>хг</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>0.000059</t>
-        </is>
+      <c r="AT13" t="n">
+        <v>5.897120520294519e-05</v>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
           <t>цт</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="AV13" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
           <t>чш</t>
         </is>
       </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>0.000052</t>
-        </is>
+      <c r="AX13" t="n">
+        <v>5.1950823631166e-05</v>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
           <t>шв</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
-        <is>
-          <t>0.000065</t>
-        </is>
+      <c r="AZ13" t="n">
+        <v>6.458751046036854e-05</v>
       </c>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
@@ -4537,50 +3785,40 @@
           <t>ыр</t>
         </is>
       </c>
-      <c r="BD13" t="inlineStr">
-        <is>
-          <t>0.000254</t>
-        </is>
+      <c r="BD13" t="n">
+        <v>0.0002541378128984067</v>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
           <t>ьц</t>
         </is>
       </c>
-      <c r="BF13" t="inlineStr">
-        <is>
-          <t>0.000118</t>
-        </is>
+      <c r="BF13" t="n">
+        <v>0.0001179424104058904</v>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
           <t>эг</t>
         </is>
       </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="BH13" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
           <t>юк</t>
         </is>
       </c>
-      <c r="BJ13" t="inlineStr">
-        <is>
-          <t>0.000044</t>
-        </is>
+      <c r="BJ13" t="n">
+        <v>4.352636574503097e-05</v>
       </c>
       <c r="BK13" t="inlineStr">
         <is>
           <t>яч</t>
         </is>
       </c>
-      <c r="BL13" t="inlineStr">
-        <is>
-          <t>0.000159</t>
-        </is>
+      <c r="BL13" t="n">
+        <v>0.0001586606235222097</v>
       </c>
     </row>
     <row r="14">
@@ -4589,260 +3827,208 @@
           <t>  </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.004614</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0.004613794768973284</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>ах</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.001123</t>
-        </is>
+      <c r="D14" t="n">
+        <v>0.00112326105148467</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>бк</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.000159</t>
-        </is>
+      <c r="F14" t="n">
+        <v>0.0001586606235222097</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>вь</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.000483</t>
-        </is>
+      <c r="H14" t="n">
+        <v>0.0004830022521384083</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>гт</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.000021</t>
-        </is>
+      <c r="J14" t="n">
+        <v>2.106114471533757e-05</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>дя</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0.000411</t>
-        </is>
+      <c r="L14" t="n">
+        <v>0.0004113943601062605</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>ез</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0.001387</t>
-        </is>
+      <c r="N14" t="n">
+        <v>0.001387227398583568</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>жс</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.000021</t>
-        </is>
+      <c r="P14" t="n">
+        <v>2.106114471533757e-05</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t>зр</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.000258</t>
-        </is>
+      <c r="R14" t="n">
+        <v>0.0002583500418414742</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>ид</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.001490</t>
-        </is>
+      <c r="T14" t="n">
+        <v>0.001489724969531544</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
           <t>йв</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>0.000018</t>
-        </is>
+      <c r="V14" t="n">
+        <v>1.825299208662589e-05</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
           <t>кж</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0.000048</t>
-        </is>
+      <c r="X14" t="n">
+        <v>4.773859468809848e-05</v>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
           <t>лл</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0.000427</t>
-        </is>
+      <c r="Z14" t="n">
+        <v>0.0004268391995641747</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>мк</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>0.000118</t>
-        </is>
+      <c r="AB14" t="n">
+        <v>0.0001179424104058904</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
           <t>нс</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>0.000500</t>
-        </is>
+      <c r="AD14" t="n">
+        <v>0.0004998511679106782</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
           <t>ок</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0.002561</t>
-        </is>
+      <c r="AF14" t="n">
+        <v>0.002561035197385048</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
           <t>пь</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0.000087</t>
-        </is>
+      <c r="AH14" t="n">
+        <v>8.705273149006194e-05</v>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
           <t>рв</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>0.000493</t>
-        </is>
+      <c r="AJ14" t="n">
+        <v>0.0004928307863388991</v>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
           <t>сс</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>0.000921</t>
-        </is>
+      <c r="AL14" t="n">
+        <v>0.0009210740622174297</v>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
           <t>тк</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>0.000725</t>
-        </is>
+      <c r="AN14" t="n">
+        <v>0.0007245033782076123</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
           <t>ув</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>0.000730</t>
-        </is>
+      <c r="AP14" t="n">
+        <v>0.0007301196834650356</v>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
           <t>фф</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="AR14" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
           <t>хс</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>0.000049</t>
-        </is>
+      <c r="AT14" t="n">
+        <v>4.914267100245432e-05</v>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
           <t>цц</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AV14" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
           <t>чл</t>
         </is>
       </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="AX14" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
           <t>шп</t>
         </is>
       </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>0.000048</t>
-        </is>
+      <c r="AZ14" t="n">
+        <v>4.773859468809848e-05</v>
       </c>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
@@ -4851,50 +4037,40 @@
           <t>ык</t>
         </is>
       </c>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>0.000201</t>
-        </is>
+      <c r="BD14" t="n">
+        <v>0.0002007829129528848</v>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
           <t>ьд</t>
         </is>
       </c>
-      <c r="BF14" t="inlineStr">
-        <is>
-          <t>0.000112</t>
-        </is>
+      <c r="BF14" t="n">
+        <v>0.000112326105148467</v>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
           <t>эз</t>
         </is>
       </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="BH14" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
           <t>юн</t>
         </is>
       </c>
-      <c r="BJ14" t="inlineStr">
-        <is>
-          <t>0.000044</t>
-        </is>
+      <c r="BJ14" t="n">
+        <v>4.352636574503097e-05</v>
       </c>
       <c r="BK14" t="inlineStr">
         <is>
           <t>ях</t>
         </is>
       </c>
-      <c r="BL14" t="inlineStr">
-        <is>
-          <t>0.000147</t>
-        </is>
+      <c r="BL14" t="n">
+        <v>0.000147428013007363</v>
       </c>
     </row>
     <row r="15">
@@ -4903,260 +4079,208 @@
           <t xml:space="preserve"> з</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.004552</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0.004552015411141626</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>ае</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.001106</t>
-        </is>
+      <c r="D15" t="n">
+        <v>0.0011064121357124</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>бщ</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.000129</t>
-        </is>
+      <c r="F15" t="n">
+        <v>0.0001291750209207371</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>вз</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.000416</t>
-        </is>
+      <c r="H15" t="n">
+        <v>0.000415606589049328</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>гм</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="J15" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>дс</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0.000359</t>
-        </is>
+      <c r="L15" t="n">
+        <v>0.0003594435364750945</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>ее</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0.001290</t>
-        </is>
+      <c r="N15" t="n">
+        <v>0.001290346132893015</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>жь</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.000018</t>
-        </is>
+      <c r="P15" t="n">
+        <v>1.825299208662589e-05</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
           <t>зм</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.000237</t>
-        </is>
+      <c r="R15" t="n">
+        <v>0.0002372888971261366</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>их</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.001438</t>
-        </is>
+      <c r="T15" t="n">
+        <v>0.001437774145900378</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
           <t>йщ</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.000018</t>
-        </is>
+      <c r="V15" t="n">
+        <v>1.825299208662589e-05</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>кц</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="X15" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
           <t>лк</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0.000402</t>
-        </is>
+      <c r="Z15" t="n">
+        <v>0.0004015658259057696</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>мр</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>0.000097</t>
-        </is>
+      <c r="AB15" t="n">
+        <v>9.688126569055281e-05</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
           <t>нц</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>0.000303</t>
-        </is>
+      <c r="AD15" t="n">
+        <v>0.000303280483900861</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
           <t>оч</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>0.001707</t>
-        </is>
+      <c r="AF15" t="n">
+        <v>0.001707356798256699</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
           <t>пп</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0.000062</t>
-        </is>
+      <c r="AH15" t="n">
+        <v>6.177935783165686e-05</v>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
           <t>рш</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>0.000446</t>
-        </is>
+      <c r="AJ15" t="n">
+        <v>0.0004464962679651565</v>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
           <t>сн</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>0.000864</t>
-        </is>
+      <c r="AL15" t="n">
+        <v>0.0008635069333288403</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
           <t>тя</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>0.000445</t>
-        </is>
+      <c r="AN15" t="n">
+        <v>0.0004450921916508006</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
           <t>уш</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>0.000691</t>
-        </is>
+      <c r="AP15" t="n">
+        <v>0.0006908055466630722</v>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
           <t>фн</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AR15" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
           <t>хш</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="AT15" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
           <t>цп</t>
         </is>
       </c>
-      <c r="AV15" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AV15" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
           <t>чп</t>
         </is>
       </c>
-      <c r="AX15" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="AX15" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
           <t>шм</t>
         </is>
       </c>
-      <c r="AZ15" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AZ15" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr"/>
@@ -5165,50 +4289,40 @@
           <t>ын</t>
         </is>
       </c>
-      <c r="BD15" t="inlineStr">
-        <is>
-          <t>0.000161</t>
-        </is>
+      <c r="BD15" t="n">
+        <v>0.0001614687761509213</v>
       </c>
       <c r="BE15" t="inlineStr">
         <is>
           <t>ьг</t>
         </is>
       </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>0.000081</t>
-        </is>
+      <c r="BF15" t="n">
+        <v>8.143642623263859e-05</v>
       </c>
       <c r="BG15" t="inlineStr">
         <is>
           <t>эп</t>
         </is>
       </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="BH15" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="BI15" t="inlineStr">
         <is>
           <t>юш</t>
         </is>
       </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="BJ15" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="BK15" t="inlineStr">
         <is>
           <t>яю</t>
         </is>
       </c>
-      <c r="BL15" t="inlineStr">
-        <is>
-          <t>0.000142</t>
-        </is>
+      <c r="BL15" t="n">
+        <v>0.0001418117077499396</v>
       </c>
     </row>
     <row r="16">
@@ -5217,260 +4331,208 @@
           <t xml:space="preserve"> г</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0.004385</t>
-        </is>
+      <c r="B16" t="n">
+        <v>0.004384930329733282</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>аж</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.001087</t>
-        </is>
+      <c r="D16" t="n">
+        <v>0.001086755067311419</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>бс</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.000081</t>
-        </is>
+      <c r="F16" t="n">
+        <v>8.143642623263859e-05</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>вт</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.000291</t>
-        </is>
+      <c r="H16" t="n">
+        <v>0.0002906437970716584</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>гс</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="J16" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>дк</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0.000302</t>
-        </is>
+      <c r="L16" t="n">
+        <v>0.0003018764075865051</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>еп</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0.001206</t>
-        </is>
+      <c r="N16" t="n">
+        <v>0.001206101554031665</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
           <t>жг</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="P16" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>зя</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.000199</t>
-        </is>
+      <c r="R16" t="n">
+        <v>0.000199378836638529</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
           <t>ир</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.001109</t>
-        </is>
+      <c r="T16" t="n">
+        <v>0.001109220288341112</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
           <t>йг</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="V16" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
           <t>кк</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="X16" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
           <t>лж</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0.000212</t>
-        </is>
+      <c r="Z16" t="n">
+        <v>0.0002120155234677315</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>мм</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="AB16" t="n">
+        <v>8.986088411877362e-05</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
           <t>нк</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>0.000265</t>
-        </is>
+      <c r="AD16" t="n">
+        <v>0.0002653704234132534</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
           <t>ож</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>0.001563</t>
-        </is>
+      <c r="AF16" t="n">
+        <v>0.001562736937878047</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
           <t xml:space="preserve">п </t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0.000048</t>
-        </is>
+      <c r="AH16" t="n">
+        <v>4.773859468809848e-05</v>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
           <t>рк</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>0.000406</t>
-        </is>
+      <c r="AJ16" t="n">
+        <v>0.0004057780548488371</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
           <t>су</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>0.000748</t>
-        </is>
+      <c r="AL16" t="n">
+        <v>0.0007483726755516616</v>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
           <t>тч</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>0.000361</t>
-        </is>
+      <c r="AN16" t="n">
+        <v>0.0003608476127894503</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
           <t>уч</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>0.000677</t>
-        </is>
+      <c r="AP16" t="n">
+        <v>0.0006767647835195139</v>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
           <t>фд</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AR16" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
           <t>хт</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="AT16" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
           <t>цч</t>
         </is>
       </c>
-      <c r="AV16" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AV16" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
           <t>чм</t>
         </is>
       </c>
-      <c r="AX16" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="AX16" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
           <t>шр</t>
         </is>
       </c>
-      <c r="AZ16" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AZ16" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="inlineStr"/>
@@ -5479,20 +4541,16 @@
           <t>ыч</t>
         </is>
       </c>
-      <c r="BD16" t="inlineStr">
-        <is>
-          <t>0.000156</t>
-        </is>
+      <c r="BD16" t="n">
+        <v>0.000155852470893498</v>
       </c>
       <c r="BE16" t="inlineStr">
         <is>
           <t>ьи</t>
         </is>
       </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>0.000073</t>
-        </is>
+      <c r="BF16" t="n">
+        <v>7.301196834650356e-05</v>
       </c>
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr"/>
@@ -5501,20 +4559,16 @@
           <t>юл</t>
         </is>
       </c>
-      <c r="BJ16" t="inlineStr">
-        <is>
-          <t>0.000029</t>
-        </is>
+      <c r="BJ16" t="n">
+        <v>2.94856026014726e-05</v>
       </c>
       <c r="BK16" t="inlineStr">
         <is>
           <t>яя</t>
         </is>
       </c>
-      <c r="BL16" t="inlineStr">
-        <is>
-          <t>0.000131</t>
-        </is>
+      <c r="BL16" t="n">
+        <v>0.0001305790972350929</v>
       </c>
     </row>
     <row r="17">
@@ -5523,250 +4577,200 @@
           <t xml:space="preserve"> у</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.004041</t>
-        </is>
+      <c r="B17" t="n">
+        <v>0.004040931632716101</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>ач</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.000929</t>
-        </is>
+      <c r="D17" t="n">
+        <v>0.0009294985201035647</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>бм</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.000045</t>
-        </is>
+      <c r="F17" t="n">
+        <v>4.493044205938681e-05</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>вд</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.000271</t>
-        </is>
+      <c r="H17" t="n">
+        <v>0.0002709867286706767</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>гв</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="J17" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>дц</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0.000211</t>
-        </is>
+      <c r="L17" t="n">
+        <v>0.0002106114471533757</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>еч</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0.001061</t>
-        </is>
+      <c r="N17" t="n">
+        <v>0.001061481693653013</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
           <t>жм</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="P17" t="n">
+        <v>9.828534200490864e-06</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
           <t>зб</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.000171</t>
-        </is>
+      <c r="R17" t="n">
+        <v>0.0001712973103514122</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
           <t>ия</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.000991</t>
-        </is>
+      <c r="T17" t="n">
+        <v>0.0009912778779352215</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
           <t>йл</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.000015</t>
-        </is>
+      <c r="V17" t="n">
+        <v>1.544483945791422e-05</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>кз</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0.000018</t>
-        </is>
+      <c r="X17" t="n">
+        <v>1.825299208662589e-05</v>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
           <t>лт</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0.000205</t>
-        </is>
+      <c r="Z17" t="n">
+        <v>0.0002049951418959523</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>мт</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>0.000086</t>
-        </is>
+      <c r="AB17" t="n">
+        <v>8.56486551757061e-05</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
           <t>нщ</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>0.000173</t>
-        </is>
+      <c r="AD17" t="n">
+        <v>0.000172701386665768</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
           <t>ое</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0.001526</t>
-        </is>
+      <c r="AF17" t="n">
+        <v>0.001526230953704796</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
           <t>пс</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="AH17" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
           <t>рл</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>0.000258</t>
-        </is>
+      <c r="AJ17" t="n">
+        <v>0.0002583500418414742</v>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
           <t>см</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>0.000593</t>
-        </is>
+      <c r="AL17" t="n">
+        <v>0.0005925202046581636</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
           <t>тл</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>0.000216</t>
-        </is>
+      <c r="AN17" t="n">
+        <v>0.000216227752410799</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
           <t>уб</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>0.000639</t>
-        </is>
+      <c r="AP17" t="n">
+        <v>0.0006388547230319063</v>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
           <t>фб</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AR17" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
           <t>хк</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="AT17" t="n">
+        <v>9.828534200490864e-06</v>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
           <t>цм</t>
         </is>
       </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AV17" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
           <t>чв</t>
         </is>
       </c>
-      <c r="AX17" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AX17" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
@@ -5777,20 +4781,16 @@
           <t>ып</t>
         </is>
       </c>
-      <c r="BD17" t="inlineStr">
-        <is>
-          <t>0.000149</t>
-        </is>
+      <c r="BD17" t="n">
+        <v>0.0001488320893217188</v>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
           <t>ьч</t>
         </is>
       </c>
-      <c r="BF17" t="inlineStr">
-        <is>
-          <t>0.000066</t>
-        </is>
+      <c r="BF17" t="n">
+        <v>6.599158677472438e-05</v>
       </c>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
@@ -5799,20 +4799,16 @@
           <t>юв</t>
         </is>
       </c>
-      <c r="BJ17" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="BJ17" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="BK17" t="inlineStr">
         <is>
           <t>яж</t>
         </is>
       </c>
-      <c r="BL17" t="inlineStr">
-        <is>
-          <t>0.000121</t>
-        </is>
+      <c r="BL17" t="n">
+        <v>0.0001207505630346021</v>
       </c>
     </row>
     <row r="18">
@@ -5821,250 +4817,200 @@
           <t xml:space="preserve"> р</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0.003864</t>
-        </is>
+      <c r="B18" t="n">
+        <v>0.003864018017107266</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>аг</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.000914</t>
-        </is>
+      <c r="D18" t="n">
+        <v>0.0009140536806456505</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>бх</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.000028</t>
-        </is>
+      <c r="F18" t="n">
+        <v>2.808152628711676e-05</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>вя</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.000256</t>
-        </is>
+      <c r="H18" t="n">
+        <v>0.0002555418892127625</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>гз</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="J18" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>дт</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0.000204</t>
-        </is>
+      <c r="L18" t="n">
+        <v>0.0002035910655815965</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>еб</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0.000869</t>
-        </is>
+      <c r="N18" t="n">
+        <v>0.0008691232385862637</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>жж</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="P18" t="n">
+        <v>9.828534200490864e-06</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
           <t>зь</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.000152</t>
-        </is>
+      <c r="R18" t="n">
+        <v>0.0001516402419504305</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>иц</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.000970</t>
-        </is>
+      <c r="T18" t="n">
+        <v>0.000970216733219884</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
           <t>йп</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="V18" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
           <t>кш</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="X18" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
           <t>лч</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0.000138</t>
-        </is>
+      <c r="Z18" t="n">
+        <v>0.0001375994788068721</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>мг</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>0.000080</t>
-        </is>
+      <c r="AB18" t="n">
+        <v>8.003234991828275e-05</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
           <t>нч</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>0.000170</t>
-        </is>
+      <c r="AD18" t="n">
+        <v>0.0001698932340370564</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
           <t>оз</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>0.001480</t>
-        </is>
+      <c r="AF18" t="n">
+        <v>0.001479896435331053</v>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
           <t>пю</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0.000029</t>
-        </is>
+      <c r="AH18" t="n">
+        <v>2.94856026014726e-05</v>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
           <t>рд</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>0.000258</t>
-        </is>
+      <c r="AJ18" t="n">
+        <v>0.0002583500418414742</v>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
           <t>сы</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>0.000320</t>
-        </is>
+      <c r="AL18" t="n">
+        <v>0.000320129399673131</v>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
           <t>тд</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>0.000156</t>
-        </is>
+      <c r="AN18" t="n">
+        <v>0.000155852470893498</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
           <t>уп</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>0.000630</t>
-        </is>
+      <c r="AP18" t="n">
+        <v>0.0006304302651457712</v>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
           <t>фп</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AR18" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
           <t>хь</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AT18" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
           <t>цэ</t>
         </is>
       </c>
-      <c r="AV18" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AV18" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
           <t>чб</t>
         </is>
       </c>
-      <c r="AX18" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AX18" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
@@ -6075,20 +5021,16 @@
           <t>ыг</t>
         </is>
       </c>
-      <c r="BD18" t="inlineStr">
-        <is>
-          <t>0.000105</t>
-        </is>
+      <c r="BD18" t="n">
+        <v>0.0001053057235766878</v>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
           <t>ьв</t>
         </is>
       </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>0.000056</t>
-        </is>
+      <c r="BF18" t="n">
+        <v>5.616305257423352e-05</v>
       </c>
       <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="inlineStr"/>
@@ -6097,20 +5039,16 @@
           <t>юц</t>
         </is>
       </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="BJ18" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="BK18" t="inlineStr">
         <is>
           <t>яг</t>
         </is>
       </c>
-      <c r="BL18" t="inlineStr">
-        <is>
-          <t>0.000108</t>
-        </is>
+      <c r="BL18" t="n">
+        <v>0.0001081138762053995</v>
       </c>
     </row>
     <row r="19">
@@ -6119,210 +5057,168 @@
           <t xml:space="preserve"> а</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.002811</t>
-        </is>
+      <c r="B19" t="n">
+        <v>0.002810960781340387</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>ап</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.000903</t>
-        </is>
+      <c r="D19" t="n">
+        <v>0.0009028210701308038</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>бв</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.000021</t>
-        </is>
+      <c r="F19" t="n">
+        <v>2.106114471533757e-05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>вк</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0.000233</t>
-        </is>
+      <c r="H19" t="n">
+        <v>0.0002330766681830691</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>гп</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="J19" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>дш</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0.000160</t>
-        </is>
+      <c r="L19" t="n">
+        <v>0.0001600646998365655</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>еж</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.000758</t>
-        </is>
+      <c r="N19" t="n">
+        <v>0.0007582012097521524</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>жр</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="P19" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
           <t>зк</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.000114</t>
-        </is>
+      <c r="R19" t="n">
+        <v>0.0001137301814628229</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>иб</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.000571</t>
-        </is>
+      <c r="T19" t="n">
+        <v>0.0005714590599428261</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
           <t>йя</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="V19" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
           <t>кп</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="X19" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
           <t>лг</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>0.000117</t>
-        </is>
+      <c r="Z19" t="n">
+        <v>0.0001165383340915345</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>мв</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>0.000080</t>
-        </is>
+      <c r="AB19" t="n">
+        <v>8.003234991828275e-05</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
           <t>ню</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>0.000157</t>
-        </is>
+      <c r="AD19" t="n">
+        <v>0.0001572565472078538</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
           <t>оп</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>0.001373</t>
-        </is>
+      <c r="AF19" t="n">
+        <v>0.001373186635440009</v>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
           <t>пч</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>0.000021</t>
-        </is>
+      <c r="AH19" t="n">
+        <v>2.106114471533757e-05</v>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
           <t>рю</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>0.000250</t>
-        </is>
+      <c r="AJ19" t="n">
+        <v>0.0002499255839553391</v>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
           <t>сч</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>0.000317</t>
-        </is>
+      <c r="AL19" t="n">
+        <v>0.0003173212470444193</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
           <t>тп</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>0.000098</t>
-        </is>
+      <c r="AN19" t="n">
+        <v>9.828534200490864e-05</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
           <t>ун</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>0.000527</t>
-        </is>
+      <c r="AP19" t="n">
+        <v>0.0005265286178834392</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
@@ -6331,30 +5227,24 @@
           <t>хп</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="AT19" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
           <t>цб</t>
         </is>
       </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AV19" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
           <t>чс</t>
         </is>
       </c>
-      <c r="AX19" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AX19" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
@@ -6365,20 +5255,16 @@
           <t>ыд</t>
         </is>
       </c>
-      <c r="BD19" t="inlineStr">
-        <is>
-          <t>0.000104</t>
-        </is>
+      <c r="BD19" t="n">
+        <v>0.000103901647262332</v>
       </c>
       <c r="BE19" t="inlineStr">
         <is>
           <t>ьб</t>
         </is>
       </c>
-      <c r="BF19" t="inlineStr">
-        <is>
-          <t>0.000044</t>
-        </is>
+      <c r="BF19" t="n">
+        <v>4.352636574503097e-05</v>
       </c>
       <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="inlineStr"/>
@@ -6387,20 +5273,16 @@
           <t>юг</t>
         </is>
       </c>
-      <c r="BJ19" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="BJ19" t="n">
+        <v>9.828534200490864e-06</v>
       </c>
       <c r="BK19" t="inlineStr">
         <is>
           <t>яр</t>
         </is>
       </c>
-      <c r="BL19" t="inlineStr">
-        <is>
-          <t>0.000095</t>
-        </is>
+      <c r="BL19" t="n">
+        <v>9.547718937619697e-05</v>
       </c>
     </row>
     <row r="20">
@@ -6409,210 +5291,168 @@
           <t xml:space="preserve"> е</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0.002776</t>
-        </is>
+      <c r="B20" t="n">
+        <v>0.002775858873481492</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>аш</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.000792</t>
-        </is>
+      <c r="D20" t="n">
+        <v>0.0007918990412966925</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>бг</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.000018</t>
-        </is>
+      <c r="F20" t="n">
+        <v>1.825299208662589e-05</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>вп</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.000226</t>
-        </is>
+      <c r="H20" t="n">
+        <v>0.0002260562866112899</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>гш</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="J20" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>дм</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0.000131</t>
-        </is>
+      <c r="L20" t="n">
+        <v>0.0001305790972350929</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>еш</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0.000650</t>
-        </is>
+      <c r="N20" t="n">
+        <v>0.000650087333546753</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>жт</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="P20" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
           <t>зз</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.000087</t>
-        </is>
+      <c r="R20" t="n">
+        <v>8.705273149006194e-05</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>ии</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.000504</t>
-        </is>
+      <c r="T20" t="n">
+        <v>0.0005040633968537458</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
           <t>йи</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="V20" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="X20" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
           <t>лб</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>0.000079</t>
-        </is>
+      <c r="Z20" t="n">
+        <v>7.862827360392692e-05</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>мь</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>0.000045</t>
-        </is>
+      <c r="AB20" t="n">
+        <v>4.493044205938681e-05</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
           <t>нг</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>0.000101</t>
-        </is>
+      <c r="AD20" t="n">
+        <v>0.0001010934946336203</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
           <t>ош</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>0.000772</t>
-        </is>
+      <c r="AF20" t="n">
+        <v>0.0007722419728957108</v>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
           <t>пш</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="AH20" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
           <t>рж</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>0.000227</t>
-        </is>
+      <c r="AJ20" t="n">
+        <v>0.0002274603629256457</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
           <t>сд</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>0.000251</t>
-        </is>
+      <c r="AL20" t="n">
+        <v>0.000251329660269695</v>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
           <t>тю</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="AN20" t="n">
+        <v>7.020381571779189e-05</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
           <t>уз</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>0.000279</t>
-        </is>
+      <c r="AP20" t="n">
+        <v>0.0002794111865568117</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
@@ -6621,10 +5461,8 @@
           <t>хэ</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AT20" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
@@ -6633,10 +5471,8 @@
           <t>чз</t>
         </is>
       </c>
-      <c r="AX20" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AX20" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
@@ -6647,20 +5483,16 @@
           <t>ыз</t>
         </is>
       </c>
-      <c r="BD20" t="inlineStr">
-        <is>
-          <t>0.000074</t>
-        </is>
+      <c r="BD20" t="n">
+        <v>7.44160446608594e-05</v>
       </c>
       <c r="BE20" t="inlineStr">
         <is>
           <t>ьп</t>
         </is>
       </c>
-      <c r="BF20" t="inlineStr">
-        <is>
-          <t>0.000032</t>
-        </is>
+      <c r="BF20" t="n">
+        <v>3.229375523018427e-05</v>
       </c>
       <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="inlineStr"/>
@@ -6669,20 +5501,16 @@
           <t>юж</t>
         </is>
       </c>
-      <c r="BJ20" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="BJ20" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="BK20" t="inlineStr">
         <is>
           <t>яе</t>
         </is>
       </c>
-      <c r="BL20" t="inlineStr">
-        <is>
-          <t>0.000093</t>
-        </is>
+      <c r="BL20" t="n">
+        <v>9.266903674748529e-05</v>
       </c>
     </row>
     <row r="21">
@@ -6691,40 +5519,32 @@
           <t xml:space="preserve"> л</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0.002738</t>
-        </is>
+      <c r="B21" t="n">
+        <v>0.002737948812993884</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>аю</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.000732</t>
-        </is>
+      <c r="D21" t="n">
+        <v>0.0007315237597793915</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>бю</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="F21" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>вм</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.000122</t>
-        </is>
+      <c r="H21" t="n">
+        <v>0.0001221546393489579</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -6733,20 +5553,16 @@
           <t>дп</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0.000104</t>
-        </is>
+      <c r="L21" t="n">
+        <v>0.000103901647262332</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>ещ</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>0.000578</t>
-        </is>
+      <c r="N21" t="n">
+        <v>0.0005784794415146052</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -6755,130 +5571,104 @@
           <t>зж</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.000087</t>
-        </is>
+      <c r="R21" t="n">
+        <v>8.705273149006194e-05</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
           <t>иш</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.000497</t>
-        </is>
+      <c r="T21" t="n">
+        <v>0.0004970430152819666</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
           <t>йф</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="V21" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
           <t>кб</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="X21" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
           <t>лд</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="Z21" t="n">
+        <v>7.020381571779189e-05</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>мч</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>0.000029</t>
-        </is>
+      <c r="AB21" t="n">
+        <v>2.94856026014726e-05</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
           <t>нф</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>0.000069</t>
-        </is>
+      <c r="AD21" t="n">
+        <v>6.879973940343605e-05</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
           <t>ои</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>0.000677</t>
-        </is>
+      <c r="AF21" t="n">
+        <v>0.0006767647835195139</v>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
           <t>пц</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="AH21" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
           <t>рх</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>0.000211</t>
-        </is>
+      <c r="AJ21" t="n">
+        <v>0.0002106114471533757</v>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
           <t>ср</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>0.000174</t>
-        </is>
+      <c r="AL21" t="n">
+        <v>0.0001741054629801239</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
           <t>тт</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>0.000065</t>
-        </is>
+      <c r="AN21" t="n">
+        <v>6.458751046036854e-05</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
           <t>ущ</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>0.000250</t>
-        </is>
+      <c r="AP21" t="n">
+        <v>0.0002499255839553391</v>
       </c>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
@@ -6887,10 +5677,8 @@
           <t>хх</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AT21" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
@@ -6899,10 +5687,8 @@
           <t>чг</t>
         </is>
       </c>
-      <c r="AX21" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AX21" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
@@ -6913,20 +5699,16 @@
           <t>ыж</t>
         </is>
       </c>
-      <c r="BD21" t="inlineStr">
-        <is>
-          <t>0.000073</t>
-        </is>
+      <c r="BD21" t="n">
+        <v>7.301196834650356e-05</v>
       </c>
       <c r="BE21" t="inlineStr">
         <is>
           <t>ьо</t>
         </is>
       </c>
-      <c r="BF21" t="inlineStr">
-        <is>
-          <t>0.000028</t>
-        </is>
+      <c r="BF21" t="n">
+        <v>2.808152628711676e-05</v>
       </c>
       <c r="BG21" t="inlineStr"/>
       <c r="BH21" t="inlineStr"/>
@@ -6935,20 +5717,16 @@
           <t>юп</t>
         </is>
       </c>
-      <c r="BJ21" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="BJ21" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="BK21" t="inlineStr">
         <is>
           <t>яп</t>
         </is>
       </c>
-      <c r="BL21" t="inlineStr">
-        <is>
-          <t>0.000074</t>
-        </is>
+      <c r="BL21" t="n">
+        <v>7.44160446608594e-05</v>
       </c>
     </row>
     <row r="22">
@@ -6957,40 +5735,32 @@
           <t xml:space="preserve"> э</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.002367</t>
-        </is>
+      <c r="B22" t="n">
+        <v>0.002367272666003943</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>ай</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.000576</t>
-        </is>
+      <c r="D22" t="n">
+        <v>0.0005756712888858935</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>бж</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="F22" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>вв</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0.000118</t>
-        </is>
+      <c r="H22" t="n">
+        <v>0.0001179424104058904</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -6999,20 +5769,16 @@
           <t>дб</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="L22" t="n">
+        <v>7.020381571779189e-05</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>ех</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>0.000397</t>
-        </is>
+      <c r="N22" t="n">
+        <v>0.0003973535969627021</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -7021,130 +5787,104 @@
           <t>зп</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.000044</t>
-        </is>
+      <c r="R22" t="n">
+        <v>4.352636574503097e-05</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
           <t>иг</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.000494</t>
-        </is>
+      <c r="T22" t="n">
+        <v>0.0004942348626532549</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
           <t>йа</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="V22" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
           <t>кх</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="X22" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
           <t>лп</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>0.000065</t>
-        </is>
+      <c r="Z22" t="n">
+        <v>6.458751046036854e-05</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>мб</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>0.000015</t>
-        </is>
+      <c r="AB22" t="n">
+        <v>1.544483945791422e-05</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
           <t>нз</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>0.000059</t>
-        </is>
+      <c r="AD22" t="n">
+        <v>5.897120520294519e-05</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
           <t>оя</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>0.000503</t>
-        </is>
+      <c r="AF22" t="n">
+        <v>0.00050265932053939</v>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
           <t>пв</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AH22" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
           <t>рм</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>0.000198</t>
-        </is>
+      <c r="AJ22" t="n">
+        <v>0.0001979747603241731</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
           <t>сш</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>0.000133</t>
-        </is>
+      <c r="AL22" t="n">
+        <v>0.0001333872498638046</v>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
           <t>тф</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>0.000056</t>
-        </is>
+      <c r="AN22" t="n">
+        <v>5.616305257423352e-05</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
           <t>уф</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>0.000195</t>
-        </is>
+      <c r="AP22" t="n">
+        <v>0.0001951666076954615</v>
       </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
@@ -7153,10 +5893,8 @@
           <t>хб</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AT22" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
@@ -7171,20 +5909,16 @@
           <t>ыя</t>
         </is>
       </c>
-      <c r="BD22" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="BD22" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="BE22" t="inlineStr">
         <is>
           <t>ьф</t>
         </is>
       </c>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="BF22" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="inlineStr"/>
@@ -7193,20 +5927,16 @@
           <t>юо</t>
         </is>
       </c>
-      <c r="BJ22" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="BJ22" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="BK22" t="inlineStr">
         <is>
           <t>яй</t>
         </is>
       </c>
-      <c r="BL22" t="inlineStr">
-        <is>
-          <t>0.000048</t>
-        </is>
+      <c r="BL22" t="n">
+        <v>4.773859468809848e-05</v>
       </c>
     </row>
     <row r="23">
@@ -7215,40 +5945,32 @@
           <t xml:space="preserve"> ж</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.001817</t>
-        </is>
+      <c r="B23" t="n">
+        <v>0.001816874750776454</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>аб</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.000566</t>
-        </is>
+      <c r="D23" t="n">
+        <v>0.0005658427546854027</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>бб</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="F23" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>вч</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.000108</t>
-        </is>
+      <c r="H23" t="n">
+        <v>0.0001081138762053995</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -7257,20 +5979,16 @@
           <t>дч</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="L23" t="n">
+        <v>6.739566308908021e-05</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>ец</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>0.000330</t>
-        </is>
+      <c r="N23" t="n">
+        <v>0.0003299579338736219</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -7279,80 +5997,64 @@
           <t>зч</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="R23" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>ио</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0.000417</t>
-        </is>
+      <c r="T23" t="n">
+        <v>0.0004170106653636838</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
           <t>йр</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="V23" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
           <t>кч</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="X23" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
           <t>лм</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>0.000059</t>
-        </is>
+      <c r="Z23" t="n">
+        <v>5.897120520294519e-05</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>мд</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="AB23" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
           <t>нр</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>0.000041</t>
-        </is>
+      <c r="AD23" t="n">
+        <v>4.07182131163193e-05</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
           <t>ох</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>0.000484</t>
-        </is>
+      <c r="AF23" t="n">
+        <v>0.0004844063284527641</v>
       </c>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
@@ -7361,40 +6063,32 @@
           <t>рч</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>0.000185</t>
-        </is>
+      <c r="AJ23" t="n">
+        <v>0.0001853380734949706</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
           <t>сх</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>0.000131</t>
-        </is>
+      <c r="AL23" t="n">
+        <v>0.0001305790972350929</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
           <t>тм</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>0.000035</t>
-        </is>
+      <c r="AN23" t="n">
+        <v>3.510190785889594e-05</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
           <t>уе</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>0.000176</t>
-        </is>
+      <c r="AP23" t="n">
+        <v>0.0001755095392944797</v>
       </c>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
@@ -7403,10 +6097,8 @@
           <t>хд</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AT23" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
@@ -7421,20 +6113,16 @@
           <t>ыц</t>
         </is>
       </c>
-      <c r="BD23" t="inlineStr">
-        <is>
-          <t>0.000015</t>
-        </is>
+      <c r="BD23" t="n">
+        <v>1.544483945791422e-05</v>
       </c>
       <c r="BE23" t="inlineStr">
         <is>
           <t>ьщ</t>
         </is>
       </c>
-      <c r="BF23" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="BF23" t="n">
+        <v>9.828534200490864e-06</v>
       </c>
       <c r="BG23" t="inlineStr"/>
       <c r="BH23" t="inlineStr"/>
@@ -7443,20 +6131,16 @@
           <t>юз</t>
         </is>
       </c>
-      <c r="BJ23" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BJ23" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BK23" t="inlineStr">
         <is>
           <t>яи</t>
         </is>
       </c>
-      <c r="BL23" t="inlineStr">
-        <is>
-          <t>0.000042</t>
-        </is>
+      <c r="BL23" t="n">
+        <v>4.212228943067513e-05</v>
       </c>
     </row>
     <row r="24">
@@ -7465,40 +6149,32 @@
           <t xml:space="preserve"> я</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0.001564</t>
-        </is>
+      <c r="B24" t="n">
+        <v>0.001564141014192403</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>ащ</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.000341</t>
-        </is>
+      <c r="D24" t="n">
+        <v>0.0003411905443884686</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>бш</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="F24" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>вх</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.000039</t>
-        </is>
+      <c r="H24" t="n">
+        <v>3.931413680196346e-05</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -7507,20 +6183,16 @@
           <t>дж</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>0.000052</t>
-        </is>
+      <c r="L24" t="n">
+        <v>5.1950823631166e-05</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>еи</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>0.000218</t>
-        </is>
+      <c r="N24" t="n">
+        <v>0.0002176318287251549</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
@@ -7529,80 +6201,64 @@
           <t>зс</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="R24" t="n">
+        <v>1.263668682920254e-05</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
           <t>ип</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.000322</t>
-        </is>
+      <c r="T24" t="n">
+        <v>0.0003215334759874869</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
           <t>йу</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="V24" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
           <t>кг</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="X24" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
           <t>лз</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>0.000031</t>
-        </is>
+      <c r="Z24" t="n">
+        <v>3.088967891582843e-05</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>мш</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="AB24" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
           <t>нв</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="AD24" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
           <t>ою</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>0.000399</t>
-        </is>
+      <c r="AF24" t="n">
+        <v>0.0003987576732770579</v>
       </c>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
@@ -7611,40 +6267,32 @@
           <t>рс</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>0.000160</t>
-        </is>
+      <c r="AJ24" t="n">
+        <v>0.0001600646998365655</v>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
           <t>сю</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>0.000094</t>
-        </is>
+      <c r="AL24" t="n">
+        <v>9.407311306184113e-05</v>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
           <t>тб</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
-        <is>
-          <t>0.000031</t>
-        </is>
+      <c r="AN24" t="n">
+        <v>3.088967891582843e-05</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
           <t>уй</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>0.000146</t>
-        </is>
+      <c r="AP24" t="n">
+        <v>0.0001460239366930071</v>
       </c>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
@@ -7663,20 +6311,16 @@
           <t>ыи</t>
         </is>
       </c>
-      <c r="BD24" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="BD24" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="BE24" t="inlineStr">
         <is>
           <t>ьр</t>
         </is>
       </c>
-      <c r="BF24" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="BF24" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="BG24" t="inlineStr"/>
       <c r="BH24" t="inlineStr"/>
@@ -7685,20 +6329,16 @@
           <t>юф</t>
         </is>
       </c>
-      <c r="BJ24" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="BJ24" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="BK24" t="inlineStr">
         <is>
           <t>яц</t>
         </is>
       </c>
-      <c r="BL24" t="inlineStr">
-        <is>
-          <t>0.000042</t>
-        </is>
+      <c r="BL24" t="n">
+        <v>4.212228943067513e-05</v>
       </c>
     </row>
     <row r="25">
@@ -7707,40 +6347,32 @@
           <t xml:space="preserve"> х</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0.001094</t>
-        </is>
+      <c r="B25" t="n">
+        <v>0.001093775448883198</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>аи</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.000313</t>
-        </is>
+      <c r="D25" t="n">
+        <v>0.0003131090181013519</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>бд</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="F25" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>вц</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.000038</t>
-        </is>
+      <c r="H25" t="n">
+        <v>3.791006048760762e-05</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -7749,20 +6381,16 @@
           <t>дх</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="L25" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>ео</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0.000209</t>
-        </is>
+      <c r="N25" t="n">
+        <v>0.0002092073708390198</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
@@ -7771,30 +6399,24 @@
           <t>зт</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="R25" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
           <t>иж</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.000247</t>
-        </is>
+      <c r="T25" t="n">
+        <v>0.0002471174313266274</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
           <t>йз</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="V25" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -7803,40 +6425,32 @@
           <t>лв</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>0.000028</t>
-        </is>
+      <c r="Z25" t="n">
+        <v>2.808152628711676e-05</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>мц</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AB25" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
           <t>нж</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="AD25" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
           <t>оф</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>0.000307</t>
-        </is>
+      <c r="AF25" t="n">
+        <v>0.0003074927128439285</v>
       </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
@@ -7845,40 +6459,32 @@
           <t>рп</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>0.000073</t>
-        </is>
+      <c r="AJ25" t="n">
+        <v>7.301196834650356e-05</v>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
           <t>сц</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>0.000079</t>
-        </is>
+      <c r="AL25" t="n">
+        <v>7.862827360392692e-05</v>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
           <t>тц</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
-        <is>
-          <t>0.000018</t>
-        </is>
+      <c r="AN25" t="n">
+        <v>1.825299208662589e-05</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
           <t>уа</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
-        <is>
-          <t>0.000111</t>
-        </is>
+      <c r="AP25" t="n">
+        <v>0.0001109220288341112</v>
       </c>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
@@ -7897,20 +6503,16 @@
           <t>ыщ</t>
         </is>
       </c>
-      <c r="BD25" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="BD25" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="BE25" t="inlineStr">
         <is>
           <t>ьл</t>
         </is>
       </c>
-      <c r="BF25" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="BF25" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="BG25" t="inlineStr"/>
       <c r="BH25" t="inlineStr"/>
@@ -7919,20 +6521,16 @@
           <t>юи</t>
         </is>
       </c>
-      <c r="BJ25" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="BJ25" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="BK25" t="inlineStr">
         <is>
           <t>яш</t>
         </is>
       </c>
-      <c r="BL25" t="inlineStr">
-        <is>
-          <t>0.000024</t>
-        </is>
+      <c r="BL25" t="n">
+        <v>2.386929734404924e-05</v>
       </c>
     </row>
     <row r="26">
@@ -7941,40 +6539,32 @@
           <t xml:space="preserve"> ш</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0.001031</t>
-        </is>
+      <c r="B26" t="n">
+        <v>0.001030592014737185</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>аф</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.000190</t>
-        </is>
+      <c r="D26" t="n">
+        <v>0.0001895503024380381</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>бч</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="F26" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>вг</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="H26" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -7983,20 +6573,16 @@
           <t>дг</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="L26" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>ею</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>0.000178</t>
-        </is>
+      <c r="N26" t="n">
+        <v>0.0001783176919231914</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -8005,30 +6591,24 @@
           <t>зш</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="R26" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
           <t>ию</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.000244</t>
-        </is>
+      <c r="T26" t="n">
+        <v>0.0002443092786979158</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
           <t>йэ</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="V26" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -8037,40 +6617,32 @@
           <t>лш</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="Z26" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>мф</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="AB26" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
           <t>нп</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AD26" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
           <t>ощ</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>0.000220</t>
-        </is>
+      <c r="AF26" t="n">
+        <v>0.0002204399813538666</v>
       </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
@@ -8079,40 +6651,32 @@
           <t>рб</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>0.000072</t>
-        </is>
+      <c r="AJ26" t="n">
+        <v>7.160789203214773e-05</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
           <t>сб</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>0.000072</t>
-        </is>
+      <c r="AL26" t="n">
+        <v>7.160789203214773e-05</v>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
           <t>тх</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="AN26" t="n">
+        <v>1.263668682920254e-05</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
           <t>уя</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr">
-        <is>
-          <t>0.000088</t>
-        </is>
+      <c r="AP26" t="n">
+        <v>8.845680780441778e-05</v>
       </c>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
@@ -8131,20 +6695,16 @@
           <t>ыу</t>
         </is>
       </c>
-      <c r="BD26" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BD26" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BE26" t="inlineStr">
         <is>
           <t>ьэ</t>
         </is>
       </c>
-      <c r="BF26" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="BF26" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="inlineStr"/>
@@ -8153,20 +6713,16 @@
           <t>юа</t>
         </is>
       </c>
-      <c r="BJ26" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="BJ26" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="BK26" t="inlineStr">
         <is>
           <t>яб</t>
         </is>
       </c>
-      <c r="BL26" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="BL26" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
     </row>
     <row r="27">
@@ -8175,40 +6731,32 @@
           <t xml:space="preserve"> ф</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0.000716</t>
-        </is>
+      <c r="B27" t="n">
+        <v>0.0007160789203214773</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>ау</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.000081</t>
-        </is>
+      <c r="D27" t="n">
+        <v>8.143642623263859e-05</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>бт</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="F27" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>вщ</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="H27" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -8217,20 +6765,16 @@
           <t>дд</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="L27" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>ея</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0.000174</t>
-        </is>
+      <c r="N27" t="n">
+        <v>0.0001741054629801239</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -8239,30 +6783,24 @@
           <t>зю</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="R27" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>иа</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.000239</t>
-        </is>
+      <c r="T27" t="n">
+        <v>0.0002386929734404924</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
           <t>йе</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="V27" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -8271,40 +6809,32 @@
           <t>лф</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="Z27" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>мэ</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="AB27" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
           <t>нб</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AD27" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
           <t>оо</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>0.000208</t>
-        </is>
+      <c r="AF27" t="n">
+        <v>0.000207803294524664</v>
       </c>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
@@ -8313,40 +6843,32 @@
           <t>рц</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>0.000066</t>
-        </is>
+      <c r="AJ27" t="n">
+        <v>6.599158677472438e-05</v>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
           <t>сж</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>0.000038</t>
-        </is>
+      <c r="AL27" t="n">
+        <v>3.791006048760762e-05</v>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
           <t>тз</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AN27" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
           <t>уи</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>0.000029</t>
-        </is>
+      <c r="AP27" t="n">
+        <v>2.94856026014726e-05</v>
       </c>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
@@ -8365,20 +6887,16 @@
           <t>ыа</t>
         </is>
       </c>
-      <c r="BD27" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BD27" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BE27" t="inlineStr">
         <is>
           <t>ьа</t>
         </is>
       </c>
-      <c r="BF27" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="BF27" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="BG27" t="inlineStr"/>
       <c r="BH27" t="inlineStr"/>
@@ -8387,20 +6905,16 @@
           <t>юя</t>
         </is>
       </c>
-      <c r="BJ27" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="BJ27" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="BK27" t="inlineStr">
         <is>
           <t>яу</t>
         </is>
       </c>
-      <c r="BL27" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="BL27" t="n">
+        <v>1.263668682920254e-05</v>
       </c>
     </row>
     <row r="28">
@@ -8409,40 +6923,32 @@
           <t xml:space="preserve"> ц</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>0.000254</t>
-        </is>
+      <c r="B28" t="n">
+        <v>0.0002541378128984067</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>ац</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.000072</t>
-        </is>
+      <c r="D28" t="n">
+        <v>7.160789203214773e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>бц</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="F28" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>вб</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="H28" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -8451,20 +6957,16 @@
           <t>дз</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="L28" t="n">
+        <v>9.828534200490864e-06</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>еу</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0.000166</t>
-        </is>
+      <c r="N28" t="n">
+        <v>0.0001656810050939889</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -8475,20 +6977,16 @@
           <t>ищ</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.000198</t>
-        </is>
+      <c r="T28" t="n">
+        <v>0.0001979747603241731</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
           <t>йж</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="V28" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -8497,40 +6995,32 @@
           <t>лх</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="Z28" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>мщ</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AB28" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
           <t>нм</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="AD28" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
           <t>оэ</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>0.000145</t>
-        </is>
+      <c r="AF28" t="n">
+        <v>0.0001446198603786513</v>
       </c>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
@@ -8539,40 +7029,32 @@
           <t>рр</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>0.000059</t>
-        </is>
+      <c r="AJ28" t="n">
+        <v>5.897120520294519e-05</v>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
           <t>сг</t>
         </is>
       </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>0.000029</t>
-        </is>
+      <c r="AL28" t="n">
+        <v>2.94856026014726e-05</v>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
           <t>тг</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AN28" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
           <t>уэ</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr">
-        <is>
-          <t>0.000015</t>
-        </is>
+      <c r="AP28" t="n">
+        <v>1.544483945791422e-05</v>
       </c>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
@@ -8591,20 +7073,16 @@
           <t>ыо</t>
         </is>
       </c>
-      <c r="BD28" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BD28" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BE28" t="inlineStr">
         <is>
           <t>ьж</t>
         </is>
       </c>
-      <c r="BF28" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BF28" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BG28" t="inlineStr"/>
       <c r="BH28" t="inlineStr"/>
@@ -8615,10 +7093,8 @@
           <t>яа</t>
         </is>
       </c>
-      <c r="BL28" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="BL28" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
     </row>
     <row r="29">
@@ -8627,30 +7103,24 @@
           <t xml:space="preserve"> щ</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0.000138</t>
-        </is>
+      <c r="B29" t="n">
+        <v>0.0001375994788068721</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>ао</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.000055</t>
-        </is>
+      <c r="D29" t="n">
+        <v>5.475897625987768e-05</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>бп</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="F29" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -8661,20 +7131,16 @@
           <t>дю</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="L29" t="n">
+        <v>9.828534200490864e-06</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
           <t>еа</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>0.000135</t>
-        </is>
+      <c r="N29" t="n">
+        <v>0.0001347913261781604</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -8685,10 +7151,8 @@
           <t>иу</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>0.000124</t>
-        </is>
+      <c r="T29" t="n">
+        <v>0.0001235587156633137</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -8699,40 +7163,32 @@
           <t>лэ</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="Z29" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>мз</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AB29" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
           <t>нш</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="AD29" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
           <t>оц</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>0.000121</t>
-        </is>
+      <c r="AF29" t="n">
+        <v>0.0001207505630346021</v>
       </c>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
@@ -8741,40 +7197,32 @@
           <t>рз</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>0.000046</t>
-        </is>
+      <c r="AJ29" t="n">
+        <v>4.633451837374265e-05</v>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
           <t>сф</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>0.000021</t>
-        </is>
+      <c r="AL29" t="n">
+        <v>2.106114471533757e-05</v>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
           <t>тш</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AN29" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
           <t>уо</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="AP29" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
@@ -8795,10 +7243,8 @@
           <t>ьу</t>
         </is>
       </c>
-      <c r="BF29" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="BF29" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="BG29" t="inlineStr"/>
       <c r="BH29" t="inlineStr"/>
@@ -8809,10 +7255,8 @@
           <t>яф</t>
         </is>
       </c>
-      <c r="BL29" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="BL29" t="n">
+        <v>7.02038157177919e-06</v>
       </c>
     </row>
     <row r="30">
@@ -8821,30 +7265,24 @@
           <t xml:space="preserve"> ю</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0.000056</t>
-        </is>
+      <c r="B30" t="n">
+        <v>5.616305257423352e-05</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>аа</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="D30" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>бз</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="F30" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -8857,10 +7295,8 @@
           <t>еф</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>0.000118</t>
-        </is>
+      <c r="N30" t="n">
+        <v>0.0001179424104058904</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -8871,10 +7307,8 @@
           <t>иф</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>0.000077</t>
-        </is>
+      <c r="T30" t="n">
+        <v>7.722419728957108e-05</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -8885,10 +7319,8 @@
           <t>лщ</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="Z30" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
@@ -8897,20 +7329,16 @@
           <t>нх</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AD30" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
           <t>оу</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>0.000058</t>
-        </is>
+      <c r="AF30" t="n">
+        <v>5.756712888858936e-05</v>
       </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
@@ -8919,40 +7347,32 @@
           <t>рщ</t>
         </is>
       </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>0.000041</t>
-        </is>
+      <c r="AJ30" t="n">
+        <v>4.07182131163193e-05</v>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
           <t>сз</t>
         </is>
       </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="AL30" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
           <t>тщ</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AN30" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
           <t>уц</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AP30" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
@@ -8979,10 +7399,8 @@
           <t>яо</t>
         </is>
       </c>
-      <c r="BL30" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="BL30" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="31">
@@ -8991,20 +7409,16 @@
           <t xml:space="preserve"> й</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="B31" t="n">
+        <v>9.828534200490864e-06</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>аэ</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.000015</t>
-        </is>
+      <c r="D31" t="n">
+        <v>1.544483945791422e-05</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -9019,10 +7433,8 @@
           <t>еэ</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="N31" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
@@ -9033,10 +7445,8 @@
           <t>иэ</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="T31" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -9053,10 +7463,8 @@
           <t>оа</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>0.000024</t>
-        </is>
+      <c r="AF31" t="n">
+        <v>2.386929734404924e-05</v>
       </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
@@ -9065,40 +7473,32 @@
           <t>рф</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="AJ31" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
           <t>сэ</t>
         </is>
       </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AL31" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
           <t>тэ</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t>0.000001</t>
-        </is>
+      <c r="AN31" t="n">
+        <v>1.404076314355838e-06</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
           <t>уу</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AP31" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
@@ -9125,10 +7525,8 @@
           <t>яэ</t>
         </is>
       </c>
-      <c r="BL31" t="inlineStr">
-        <is>
-          <t>0.000004</t>
-        </is>
+      <c r="BL31" t="n">
+        <v>4.212228943067513e-06</v>
       </c>
     </row>
     <row r="32">
@@ -9173,10 +7571,8 @@
           <t>сщ</t>
         </is>
       </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AL32" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
